--- a/src/lib/gen-server/port-battle.xlsx
+++ b/src/lib/gen-server/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="451">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Victory</t>
   </si>
   <si>
+    <t>Victory 1765 (i)</t>
+  </si>
+  <si>
     <t>Christian</t>
   </si>
   <si>
@@ -83,7 +86,7 @@
     <t>Implacable</t>
   </si>
   <si>
-    <t>Redoutable</t>
+    <t>Redoutable (i)</t>
   </si>
   <si>
     <t>USS United States</t>
@@ -101,10 +104,10 @@
     <t>Ingermanland</t>
   </si>
   <si>
-    <t>Leopard</t>
-  </si>
-  <si>
-    <t>Rättvisan</t>
+    <t>Leopard (i)</t>
+  </si>
+  <si>
+    <t>Rättvisan (i)</t>
   </si>
   <si>
     <t>Wapen von Hamburg</t>
@@ -116,6 +119,9 @@
     <t>Diana</t>
   </si>
   <si>
+    <t>Diana (i)</t>
+  </si>
+  <si>
     <t>Endymion</t>
   </si>
   <si>
@@ -125,13 +131,13 @@
     <t>Frigate</t>
   </si>
   <si>
-    <t>Hercules</t>
+    <t>Hercules (i)</t>
   </si>
   <si>
     <t>Indiaman</t>
   </si>
   <si>
-    <t>L’Hermione</t>
+    <t>L’Hermione (i)</t>
   </si>
   <si>
     <t>La Belle-Poule</t>
@@ -146,7 +152,7 @@
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
-    <t>Pandora</t>
+    <t>Pandora (i)</t>
   </si>
   <si>
     <t>Pirate Frigate</t>
@@ -161,7 +167,7 @@
     <t>Trincomalee</t>
   </si>
   <si>
-    <t>Le Requin</t>
+    <t>Le Requin (i)</t>
   </si>
   <si>
     <t>Mortar Brig</t>
@@ -1136,10 +1142,10 @@
     <t>Privateer</t>
   </si>
   <si>
-    <t>Yacht</t>
-  </si>
-  <si>
-    <t>Yacht Silver</t>
+    <t>Yacht (i)</t>
+  </si>
+  <si>
+    <t>Yacht Silver (i)</t>
   </si>
   <si>
     <t>Ahumada</t>
@@ -1640,7 +1646,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>10600</v>
@@ -1686,7 +1692,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>5700</v>
@@ -1736,7 +1742,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>5700</v>
@@ -1747,10 +1753,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D45)</f>
+        <f>SUM(D5:D47)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E45)</f>
+        <f>SUM(E5:E47)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1780,7 +1786,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>5700</v>
@@ -1803,13 +1809,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1834,7 +1840,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>10600</v>
@@ -1857,13 +1863,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -1888,7 +1894,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>10600</v>
@@ -1936,55 +1942,55 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>5700</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1">
-      <c r="A8" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="30" t="n">
-        <v>600</v>
-      </c>
-      <c r="D8" s="30">
+      <c r="C8" s="26" t="n">
+        <v>800</v>
+      </c>
+      <c r="D8" s="26">
         <f>COUNTA(F8:AD8)</f>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="26">
         <f>C8*D8</f>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
       <c r="AE8" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>5700</v>
@@ -1998,7 +2004,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="30" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="D9" s="30">
         <f>COUNTA(F9:AD9)</f>
@@ -2032,7 +2038,7 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>5700</v>
@@ -2046,7 +2052,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="30" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D10" s="30">
         <f>COUNTA(F10:AD10)</f>
@@ -2080,55 +2086,55 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>10600</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1">
-      <c r="A11" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="26" t="n">
-        <v>490</v>
-      </c>
-      <c r="D11" s="26">
+      <c r="C11" s="30" t="n">
+        <v>540</v>
+      </c>
+      <c r="D11" s="30">
         <f>COUNTA(F11:AD11)</f>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="30">
         <f>C11*D11</f>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>5700</v>
@@ -2142,7 +2148,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="26" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="D12" s="26">
         <f>COUNTA(F12:AD12)</f>
@@ -2176,7 +2182,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>5700</v>
@@ -2190,7 +2196,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="26" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="D13" s="26">
         <f>COUNTA(F13:AD13)</f>
@@ -2224,7 +2230,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>5700</v>
@@ -2238,7 +2244,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="26" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D14" s="26">
         <f>COUNTA(F14:AD14)</f>
@@ -2272,7 +2278,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>5700</v>
@@ -2286,7 +2292,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="26" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="D15" s="26">
         <f>COUNTA(F15:AD15)</f>
@@ -2320,7 +2326,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>5700</v>
@@ -2368,7 +2374,7 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>10600</v>
@@ -2382,7 +2388,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="26" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="D17" s="26">
         <f>COUNTA(F17:AD17)</f>
@@ -2416,7 +2422,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
       <c r="AE17" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>5700</v>
@@ -2464,55 +2470,55 @@
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
       <c r="AE18" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>10600</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1">
-      <c r="A19" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="30" t="n">
-        <v>340</v>
-      </c>
-      <c r="D19" s="30">
+      <c r="C19" s="26" t="n">
+        <v>400</v>
+      </c>
+      <c r="D19" s="26">
         <f>COUNTA(F19:AD19)</f>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="26">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
       <c r="AE19" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>5700</v>
@@ -2526,7 +2532,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="30" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
@@ -2560,7 +2566,7 @@
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>10600</v>
@@ -2574,7 +2580,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="30" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
@@ -2608,7 +2614,7 @@
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>20000</v>
@@ -2622,7 +2628,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="30" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
@@ -2656,7 +2662,7 @@
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>5700</v>
@@ -2670,7 +2676,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="30" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D23" s="30">
         <f>COUNTA(F23:AD23)</f>
@@ -2704,7 +2710,7 @@
       <c r="AC23" s="29"/>
       <c r="AD23" s="29"/>
       <c r="AE23" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>5700</v>
@@ -2718,7 +2724,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="30" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="D24" s="30">
         <f>COUNTA(F24:AD24)</f>
@@ -2752,55 +2758,55 @@
       <c r="AC24" s="29"/>
       <c r="AD24" s="29"/>
       <c r="AE24" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>5700</v>
       </c>
     </row>
     <row r="25" spans="1:32" customHeight="1">
-      <c r="A25" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="26" t="n">
-        <v>100</v>
-      </c>
-      <c r="D25" s="26">
+      <c r="C25" s="30" t="n">
+        <v>290</v>
+      </c>
+      <c r="D25" s="30">
         <f>COUNTA(F25:AD25)</f>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="30">
         <f>C25*D25</f>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
       <c r="AE25" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>20000</v>
@@ -2814,7 +2820,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -2848,7 +2854,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>10600</v>
@@ -2862,7 +2868,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="26" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D27" s="26">
         <f>COUNTA(F27:AD27)</f>
@@ -2896,7 +2902,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>20000</v>
@@ -2910,7 +2916,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="26" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D28" s="26">
         <f>COUNTA(F28:AD28)</f>
@@ -2944,7 +2950,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>10600</v>
@@ -2958,7 +2964,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="26" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="D29" s="26">
         <f>COUNTA(F29:AD29)</f>
@@ -2992,7 +2998,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>20000</v>
@@ -3006,7 +3012,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="26" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="D30" s="26">
         <f>COUNTA(F30:AD30)</f>
@@ -3040,7 +3046,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
       <c r="AE30" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>5700</v>
@@ -3054,7 +3060,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="26" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D31" s="26">
         <f>COUNTA(F31:AD31)</f>
@@ -3088,7 +3094,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>5700</v>
@@ -3102,7 +3108,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="26" t="n">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="D32" s="26">
         <f>COUNTA(F32:AD32)</f>
@@ -3136,7 +3142,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>10600</v>
@@ -3150,7 +3156,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="26" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D33" s="26">
         <f>COUNTA(F33:AD33)</f>
@@ -3184,7 +3190,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>5700</v>
@@ -3198,7 +3204,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="26" t="n">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="D34" s="26">
         <f>COUNTA(F34:AD34)</f>
@@ -3232,7 +3238,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>20000</v>
@@ -3246,7 +3252,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="26" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D35" s="26">
         <f>COUNTA(F35:AD35)</f>
@@ -3280,7 +3286,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
       <c r="AE35" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>5700</v>
@@ -3294,7 +3300,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -3328,7 +3334,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>5700</v>
@@ -3342,7 +3348,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D37" s="26">
         <f>COUNTA(F37:AD37)</f>
@@ -3376,7 +3382,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>20000</v>
@@ -3390,7 +3396,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="26" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D38" s="26">
         <f>COUNTA(F38:AD38)</f>
@@ -3424,7 +3430,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
       <c r="AE38" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>10600</v>
@@ -3438,7 +3444,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="26" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D39" s="26">
         <f>COUNTA(F39:AD39)</f>
@@ -3472,7 +3478,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
       <c r="AE39" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>5700</v>
@@ -3486,7 +3492,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="26" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D40" s="26">
         <f>COUNTA(F40:AD40)</f>
@@ -3520,7 +3526,7 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
       <c r="AE40" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>5700</v>
@@ -3534,7 +3540,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="26" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D41" s="26">
         <f>COUNTA(F41:AD41)</f>
@@ -3568,103 +3574,103 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
       <c r="AE41" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>5700</v>
       </c>
     </row>
     <row r="42" spans="1:32" customHeight="1">
-      <c r="A42" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B42" s="29" t="s">
+      <c r="A42" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="D42" s="30">
+      <c r="C42" s="26" t="n">
+        <v>120</v>
+      </c>
+      <c r="D42" s="26">
         <f>COUNTA(F42:AD42)</f>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="26">
         <f>C42*D42</f>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
       <c r="AE42" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>5700</v>
       </c>
     </row>
     <row r="43" spans="1:32" customHeight="1">
-      <c r="A43" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B43" s="29" t="s">
+      <c r="A43" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="30" t="n">
-        <v>80</v>
-      </c>
-      <c r="D43" s="30">
+      <c r="C43" s="26" t="n">
+        <v>260</v>
+      </c>
+      <c r="D43" s="26">
         <f>COUNTA(F43:AD43)</f>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="26">
         <f>C43*D43</f>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
       <c r="AE43" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>5700</v>
@@ -3678,7 +3684,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D44" s="30">
         <f>COUNTA(F44:AD44)</f>
@@ -3712,7 +3718,7 @@
       <c r="AC44" s="29"/>
       <c r="AD44" s="29"/>
       <c r="AE44" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>5700</v>
@@ -3726,7 +3732,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D45" s="30">
         <f>COUNTA(F45:AD45)</f>
@@ -3760,23 +3766,103 @@
       <c r="AC45" s="29"/>
       <c r="AD45" s="29"/>
       <c r="AE45" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>5700</v>
       </c>
     </row>
-    <row r="46" spans="31:32" customHeight="1">
+    <row r="46" spans="1:32" customHeight="1">
+      <c r="A46" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="30" t="n">
+        <v>90</v>
+      </c>
+      <c r="D46" s="30">
+        <f>COUNTA(F46:AD46)</f>
+      </c>
+      <c r="E46" s="30">
+        <f>C46*D46</f>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
       <c r="AE46" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="31:32" customHeight="1">
+    <row r="47" spans="1:32" customHeight="1">
+      <c r="A47" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="D47" s="30">
+        <f>COUNTA(F47:AD47)</f>
+      </c>
+      <c r="E47" s="30">
+        <f>C47*D47</f>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
       <c r="AE47" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>5700</v>
@@ -3784,7 +3870,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>5700</v>
@@ -3792,7 +3878,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>5700</v>
@@ -3800,7 +3886,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>5700</v>
@@ -3808,7 +3894,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>20000</v>
@@ -3816,7 +3902,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>20000</v>
@@ -3824,7 +3910,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>10600</v>
@@ -3832,7 +3918,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>10600</v>
@@ -3840,7 +3926,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>5700</v>
@@ -3848,7 +3934,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>20000</v>
@@ -3856,7 +3942,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>5700</v>
@@ -3864,7 +3950,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>5700</v>
@@ -3872,7 +3958,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>10600</v>
@@ -3880,7 +3966,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>5700</v>
@@ -3888,7 +3974,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>5700</v>
@@ -3896,7 +3982,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>5700</v>
@@ -3904,7 +3990,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>5700</v>
@@ -3912,7 +3998,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>5700</v>
@@ -3920,7 +4006,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>20000</v>
@@ -3928,7 +4014,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>5700</v>
@@ -3936,7 +4022,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>10600</v>
@@ -3944,7 +4030,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>20000</v>
@@ -3952,7 +4038,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>20000</v>
@@ -3960,7 +4046,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>10600</v>
@@ -3968,7 +4054,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>5700</v>
@@ -3976,7 +4062,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>5700</v>
@@ -3984,7 +4070,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>5700</v>
@@ -3992,7 +4078,7 @@
     </row>
     <row r="74" spans="31:32" customHeight="1">
       <c r="AE74" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AF74" s="0" t="n">
         <v>5700</v>
@@ -4000,7 +4086,7 @@
     </row>
     <row r="75" spans="31:32" customHeight="1">
       <c r="AE75" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AF75" s="0" t="n">
         <v>5700</v>
@@ -4008,7 +4094,7 @@
     </row>
     <row r="76" spans="31:32" customHeight="1">
       <c r="AE76" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF76" s="0" t="n">
         <v>5700</v>
@@ -4016,7 +4102,7 @@
     </row>
     <row r="77" spans="31:32" customHeight="1">
       <c r="AE77" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF77" s="0" t="n">
         <v>5700</v>
@@ -4024,7 +4110,7 @@
     </row>
     <row r="78" spans="31:32" customHeight="1">
       <c r="AE78" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF78" s="0" t="n">
         <v>5700</v>
@@ -4032,7 +4118,7 @@
     </row>
     <row r="79" spans="31:32" customHeight="1">
       <c r="AE79" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF79" s="0" t="n">
         <v>20000</v>
@@ -4040,7 +4126,7 @@
     </row>
     <row r="80" spans="31:32" customHeight="1">
       <c r="AE80" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AF80" s="0" t="n">
         <v>5700</v>
@@ -4048,7 +4134,7 @@
     </row>
     <row r="81" spans="31:32" customHeight="1">
       <c r="AE81" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF81" s="0" t="n">
         <v>5700</v>
@@ -4056,7 +4142,7 @@
     </row>
     <row r="82" spans="31:32" customHeight="1">
       <c r="AE82" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF82" s="0" t="n">
         <v>20000</v>
@@ -4064,7 +4150,7 @@
     </row>
     <row r="83" spans="31:32" customHeight="1">
       <c r="AE83" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF83" s="0" t="n">
         <v>5700</v>
@@ -4072,7 +4158,7 @@
     </row>
     <row r="84" spans="31:32" customHeight="1">
       <c r="AE84" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF84" s="0" t="n">
         <v>10600</v>
@@ -4080,7 +4166,7 @@
     </row>
     <row r="85" spans="31:32" customHeight="1">
       <c r="AE85" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF85" s="0" t="n">
         <v>5700</v>
@@ -4088,7 +4174,7 @@
     </row>
     <row r="86" spans="31:32" customHeight="1">
       <c r="AE86" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF86" s="0" t="n">
         <v>5700</v>
@@ -4096,7 +4182,7 @@
     </row>
     <row r="87" spans="31:32" customHeight="1">
       <c r="AE87" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AF87" s="0" t="n">
         <v>5700</v>
@@ -4104,7 +4190,7 @@
     </row>
     <row r="88" spans="31:32" customHeight="1">
       <c r="AE88" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF88" s="0" t="n">
         <v>5700</v>
@@ -4112,7 +4198,7 @@
     </row>
     <row r="89" spans="31:32" customHeight="1">
       <c r="AE89" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF89" s="0" t="n">
         <v>5700</v>
@@ -4120,7 +4206,7 @@
     </row>
     <row r="90" spans="31:32" customHeight="1">
       <c r="AE90" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF90" s="0" t="n">
         <v>5700</v>
@@ -4128,7 +4214,7 @@
     </row>
     <row r="91" spans="31:32" customHeight="1">
       <c r="AE91" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF91" s="0" t="n">
         <v>5700</v>
@@ -4136,7 +4222,7 @@
     </row>
     <row r="92" spans="31:32" customHeight="1">
       <c r="AE92" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF92" s="0" t="n">
         <v>10600</v>
@@ -4144,7 +4230,7 @@
     </row>
     <row r="93" spans="31:32" customHeight="1">
       <c r="AE93" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AF93" s="0" t="n">
         <v>5700</v>
@@ -4152,7 +4238,7 @@
     </row>
     <row r="94" spans="31:32" customHeight="1">
       <c r="AE94" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF94" s="0" t="n">
         <v>5700</v>
@@ -4160,7 +4246,7 @@
     </row>
     <row r="95" spans="31:32" customHeight="1">
       <c r="AE95" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF95" s="0" t="n">
         <v>5700</v>
@@ -4168,7 +4254,7 @@
     </row>
     <row r="96" spans="31:32" customHeight="1">
       <c r="AE96" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AF96" s="0" t="n">
         <v>5700</v>
@@ -4176,7 +4262,7 @@
     </row>
     <row r="97" spans="31:32" customHeight="1">
       <c r="AE97" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF97" s="0" t="n">
         <v>5700</v>
@@ -4184,7 +4270,7 @@
     </row>
     <row r="98" spans="31:32" customHeight="1">
       <c r="AE98" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF98" s="0" t="n">
         <v>10600</v>
@@ -4192,7 +4278,7 @@
     </row>
     <row r="99" spans="31:32" customHeight="1">
       <c r="AE99" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF99" s="0" t="n">
         <v>20000</v>
@@ -4200,7 +4286,7 @@
     </row>
     <row r="100" spans="31:32" customHeight="1">
       <c r="AE100" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF100" s="0" t="n">
         <v>10600</v>
@@ -4208,7 +4294,7 @@
     </row>
     <row r="101" spans="31:32" customHeight="1">
       <c r="AE101" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AF101" s="0" t="n">
         <v>5700</v>
@@ -4216,7 +4302,7 @@
     </row>
     <row r="102" spans="31:32" customHeight="1">
       <c r="AE102" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF102" s="0" t="n">
         <v>5700</v>
@@ -4224,7 +4310,7 @@
     </row>
     <row r="103" spans="31:32" customHeight="1">
       <c r="AE103" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AF103" s="0" t="n">
         <v>5700</v>
@@ -4232,7 +4318,7 @@
     </row>
     <row r="104" spans="31:32" customHeight="1">
       <c r="AE104" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF104" s="0" t="n">
         <v>20000</v>
@@ -4240,7 +4326,7 @@
     </row>
     <row r="105" spans="31:32" customHeight="1">
       <c r="AE105" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AF105" s="0" t="n">
         <v>5700</v>
@@ -4248,7 +4334,7 @@
     </row>
     <row r="106" spans="31:32" customHeight="1">
       <c r="AE106" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF106" s="0" t="n">
         <v>5700</v>
@@ -4256,7 +4342,7 @@
     </row>
     <row r="107" spans="31:32" customHeight="1">
       <c r="AE107" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AF107" s="0" t="n">
         <v>10600</v>
@@ -4264,7 +4350,7 @@
     </row>
     <row r="108" spans="31:32" customHeight="1">
       <c r="AE108" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF108" s="0" t="n">
         <v>10600</v>
@@ -4272,7 +4358,7 @@
     </row>
     <row r="109" spans="31:32" customHeight="1">
       <c r="AE109" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF109" s="0" t="n">
         <v>5700</v>
@@ -4280,7 +4366,7 @@
     </row>
     <row r="110" spans="31:32" customHeight="1">
       <c r="AE110" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF110" s="0" t="n">
         <v>5700</v>
@@ -4288,7 +4374,7 @@
     </row>
     <row r="111" spans="31:32" customHeight="1">
       <c r="AE111" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF111" s="0" t="n">
         <v>5700</v>
@@ -4296,7 +4382,7 @@
     </row>
     <row r="112" spans="31:32" customHeight="1">
       <c r="AE112" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF112" s="0" t="n">
         <v>5700</v>
@@ -4304,7 +4390,7 @@
     </row>
     <row r="113" spans="31:32" customHeight="1">
       <c r="AE113" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF113" s="0" t="n">
         <v>10600</v>
@@ -4312,7 +4398,7 @@
     </row>
     <row r="114" spans="31:32" customHeight="1">
       <c r="AE114" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF114" s="0" t="n">
         <v>5700</v>
@@ -4320,7 +4406,7 @@
     </row>
     <row r="115" spans="31:32" customHeight="1">
       <c r="AE115" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF115" s="0" t="n">
         <v>5700</v>
@@ -4328,7 +4414,7 @@
     </row>
     <row r="116" spans="31:32" customHeight="1">
       <c r="AE116" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF116" s="0" t="n">
         <v>5700</v>
@@ -4336,7 +4422,7 @@
     </row>
     <row r="117" spans="31:32" customHeight="1">
       <c r="AE117" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AF117" s="0" t="n">
         <v>10600</v>
@@ -4344,7 +4430,7 @@
     </row>
     <row r="118" spans="31:32" customHeight="1">
       <c r="AE118" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AF118" s="0" t="n">
         <v>20000</v>
@@ -4352,7 +4438,7 @@
     </row>
     <row r="119" spans="31:32" customHeight="1">
       <c r="AE119" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF119" s="0" t="n">
         <v>5700</v>
@@ -4360,7 +4446,7 @@
     </row>
     <row r="120" spans="31:32" customHeight="1">
       <c r="AE120" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF120" s="0" t="n">
         <v>10600</v>
@@ -4368,7 +4454,7 @@
     </row>
     <row r="121" spans="31:32" customHeight="1">
       <c r="AE121" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AF121" s="0" t="n">
         <v>5700</v>
@@ -4376,7 +4462,7 @@
     </row>
     <row r="122" spans="31:32" customHeight="1">
       <c r="AE122" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AF122" s="0" t="n">
         <v>10600</v>
@@ -4384,7 +4470,7 @@
     </row>
     <row r="123" spans="31:32" customHeight="1">
       <c r="AE123" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AF123" s="0" t="n">
         <v>10600</v>
@@ -4392,7 +4478,7 @@
     </row>
     <row r="124" spans="31:32" customHeight="1">
       <c r="AE124" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF124" s="0" t="n">
         <v>5700</v>
@@ -4400,7 +4486,7 @@
     </row>
     <row r="125" spans="31:32" customHeight="1">
       <c r="AE125" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF125" s="0" t="n">
         <v>10600</v>
@@ -4408,7 +4494,7 @@
     </row>
     <row r="126" spans="31:32" customHeight="1">
       <c r="AE126" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AF126" s="0" t="n">
         <v>5700</v>
@@ -4416,7 +4502,7 @@
     </row>
     <row r="127" spans="31:32" customHeight="1">
       <c r="AE127" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF127" s="0" t="n">
         <v>5700</v>
@@ -4424,7 +4510,7 @@
     </row>
     <row r="128" spans="31:32" customHeight="1">
       <c r="AE128" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF128" s="0" t="n">
         <v>5700</v>
@@ -4432,7 +4518,7 @@
     </row>
     <row r="129" spans="31:32" customHeight="1">
       <c r="AE129" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF129" s="0" t="n">
         <v>20000</v>
@@ -4440,7 +4526,7 @@
     </row>
     <row r="130" spans="31:32" customHeight="1">
       <c r="AE130" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF130" s="0" t="n">
         <v>10600</v>
@@ -4448,7 +4534,7 @@
     </row>
     <row r="131" spans="31:32" customHeight="1">
       <c r="AE131" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AF131" s="0" t="n">
         <v>5700</v>
@@ -4456,7 +4542,7 @@
     </row>
     <row r="132" spans="31:32" customHeight="1">
       <c r="AE132" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF132" s="0" t="n">
         <v>5700</v>
@@ -4464,7 +4550,7 @@
     </row>
     <row r="133" spans="31:32" customHeight="1">
       <c r="AE133" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF133" s="0" t="n">
         <v>20000</v>
@@ -4472,7 +4558,7 @@
     </row>
     <row r="134" spans="31:32" customHeight="1">
       <c r="AE134" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AF134" s="0" t="n">
         <v>5700</v>
@@ -4480,7 +4566,7 @@
     </row>
     <row r="135" spans="31:32" customHeight="1">
       <c r="AE135" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>5700</v>
@@ -4488,7 +4574,7 @@
     </row>
     <row r="136" spans="31:32" customHeight="1">
       <c r="AE136" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF136" s="0" t="n">
         <v>5700</v>
@@ -4496,7 +4582,7 @@
     </row>
     <row r="137" spans="31:32" customHeight="1">
       <c r="AE137" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF137" s="0" t="n">
         <v>5700</v>
@@ -4504,7 +4590,7 @@
     </row>
     <row r="138" spans="31:32" customHeight="1">
       <c r="AE138" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF138" s="0" t="n">
         <v>5700</v>
@@ -4512,7 +4598,7 @@
     </row>
     <row r="139" spans="31:32" customHeight="1">
       <c r="AE139" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF139" s="0" t="n">
         <v>5700</v>
@@ -4520,7 +4606,7 @@
     </row>
     <row r="140" spans="31:32" customHeight="1">
       <c r="AE140" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AF140" s="0" t="n">
         <v>10600</v>
@@ -4528,7 +4614,7 @@
     </row>
     <row r="141" spans="31:32" customHeight="1">
       <c r="AE141" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF141" s="0" t="n">
         <v>5700</v>
@@ -4536,7 +4622,7 @@
     </row>
     <row r="142" spans="31:32" customHeight="1">
       <c r="AE142" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF142" s="0" t="n">
         <v>5700</v>
@@ -4544,7 +4630,7 @@
     </row>
     <row r="143" spans="31:32" customHeight="1">
       <c r="AE143" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AF143" s="0" t="n">
         <v>5700</v>
@@ -4552,7 +4638,7 @@
     </row>
     <row r="144" spans="31:32" customHeight="1">
       <c r="AE144" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF144" s="0" t="n">
         <v>5700</v>
@@ -4560,7 +4646,7 @@
     </row>
     <row r="145" spans="31:32" customHeight="1">
       <c r="AE145" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AF145" s="0" t="n">
         <v>10600</v>
@@ -4568,7 +4654,7 @@
     </row>
     <row r="146" spans="31:32" customHeight="1">
       <c r="AE146" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF146" s="0" t="n">
         <v>20000</v>
@@ -4576,7 +4662,7 @@
     </row>
     <row r="147" spans="31:32" customHeight="1">
       <c r="AE147" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF147" s="0" t="n">
         <v>10600</v>
@@ -4584,7 +4670,7 @@
     </row>
     <row r="148" spans="31:32" customHeight="1">
       <c r="AE148" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AF148" s="0" t="n">
         <v>5700</v>
@@ -4592,7 +4678,7 @@
     </row>
     <row r="149" spans="31:32" customHeight="1">
       <c r="AE149" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF149" s="0" t="n">
         <v>5700</v>
@@ -4600,7 +4686,7 @@
     </row>
     <row r="150" spans="31:32" customHeight="1">
       <c r="AE150" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AF150" s="0" t="n">
         <v>5700</v>
@@ -4608,7 +4694,7 @@
     </row>
     <row r="151" spans="31:32" customHeight="1">
       <c r="AE151" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF151" s="0" t="n">
         <v>5700</v>
@@ -4616,7 +4702,7 @@
     </row>
     <row r="152" spans="31:32" customHeight="1">
       <c r="AE152" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AF152" s="0" t="n">
         <v>10600</v>
@@ -4624,7 +4710,7 @@
     </row>
     <row r="153" spans="31:32" customHeight="1">
       <c r="AE153" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AF153" s="0" t="n">
         <v>5700</v>
@@ -4632,7 +4718,7 @@
     </row>
     <row r="154" spans="31:32" customHeight="1">
       <c r="AE154" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF154" s="0" t="n">
         <v>5700</v>
@@ -4640,7 +4726,7 @@
     </row>
     <row r="155" spans="31:32" customHeight="1">
       <c r="AE155" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AF155" s="0" t="n">
         <v>5700</v>
@@ -4648,7 +4734,7 @@
     </row>
     <row r="156" spans="31:32" customHeight="1">
       <c r="AE156" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AF156" s="0" t="n">
         <v>10600</v>
@@ -4656,7 +4742,7 @@
     </row>
     <row r="157" spans="31:32" customHeight="1">
       <c r="AE157" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF157" s="0" t="n">
         <v>5700</v>
@@ -4664,7 +4750,7 @@
     </row>
     <row r="158" spans="31:32" customHeight="1">
       <c r="AE158" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF158" s="0" t="n">
         <v>20000</v>
@@ -4672,7 +4758,7 @@
     </row>
     <row r="159" spans="31:32" customHeight="1">
       <c r="AE159" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF159" s="0" t="n">
         <v>5700</v>
@@ -4680,7 +4766,7 @@
     </row>
     <row r="160" spans="31:32" customHeight="1">
       <c r="AE160" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF160" s="0" t="n">
         <v>10600</v>
@@ -4688,7 +4774,7 @@
     </row>
     <row r="161" spans="31:32" customHeight="1">
       <c r="AE161" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF161" s="0" t="n">
         <v>5700</v>
@@ -4696,7 +4782,7 @@
     </row>
     <row r="162" spans="31:32" customHeight="1">
       <c r="AE162" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF162" s="0" t="n">
         <v>20000</v>
@@ -4704,7 +4790,7 @@
     </row>
     <row r="163" spans="31:32" customHeight="1">
       <c r="AE163" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AF163" s="0" t="n">
         <v>10600</v>
@@ -4712,7 +4798,7 @@
     </row>
     <row r="164" spans="31:32" customHeight="1">
       <c r="AE164" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF164" s="0" t="n">
         <v>5700</v>
@@ -4720,7 +4806,7 @@
     </row>
     <row r="165" spans="31:32" customHeight="1">
       <c r="AE165" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF165" s="0" t="n">
         <v>5700</v>
@@ -4728,7 +4814,7 @@
     </row>
     <row r="166" spans="31:32" customHeight="1">
       <c r="AE166" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF166" s="0" t="n">
         <v>10600</v>
@@ -4736,7 +4822,7 @@
     </row>
     <row r="167" spans="31:32" customHeight="1">
       <c r="AE167" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF167" s="0" t="n">
         <v>10600</v>
@@ -4744,7 +4830,7 @@
     </row>
     <row r="168" spans="31:32" customHeight="1">
       <c r="AE168" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF168" s="0" t="n">
         <v>20000</v>
@@ -4752,7 +4838,7 @@
     </row>
     <row r="169" spans="31:32" customHeight="1">
       <c r="AE169" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF169" s="0" t="n">
         <v>5700</v>
@@ -4760,7 +4846,7 @@
     </row>
     <row r="170" spans="31:32" customHeight="1">
       <c r="AE170" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF170" s="0" t="n">
         <v>5700</v>
@@ -4768,7 +4854,7 @@
     </row>
     <row r="171" spans="31:32" customHeight="1">
       <c r="AE171" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF171" s="0" t="n">
         <v>5700</v>
@@ -4776,7 +4862,7 @@
     </row>
     <row r="172" spans="31:32" customHeight="1">
       <c r="AE172" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF172" s="0" t="n">
         <v>5700</v>
@@ -4784,7 +4870,7 @@
     </row>
     <row r="173" spans="31:32" customHeight="1">
       <c r="AE173" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF173" s="0" t="n">
         <v>5700</v>
@@ -4792,7 +4878,7 @@
     </row>
     <row r="174" spans="31:32" customHeight="1">
       <c r="AE174" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF174" s="0" t="n">
         <v>5700</v>
@@ -4800,7 +4886,7 @@
     </row>
     <row r="175" spans="31:32" customHeight="1">
       <c r="AE175" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AF175" s="0" t="n">
         <v>5700</v>
@@ -4808,7 +4894,7 @@
     </row>
     <row r="176" spans="31:32" customHeight="1">
       <c r="AE176" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF176" s="0" t="n">
         <v>5700</v>
@@ -4816,7 +4902,7 @@
     </row>
     <row r="177" spans="31:32" customHeight="1">
       <c r="AE177" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AF177" s="0" t="n">
         <v>20000</v>
@@ -4824,7 +4910,7 @@
     </row>
     <row r="178" spans="31:32" customHeight="1">
       <c r="AE178" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF178" s="0" t="n">
         <v>20000</v>
@@ -4832,7 +4918,7 @@
     </row>
     <row r="179" spans="31:32" customHeight="1">
       <c r="AE179" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF179" s="0" t="n">
         <v>20000</v>
@@ -4840,7 +4926,7 @@
     </row>
     <row r="180" spans="31:32" customHeight="1">
       <c r="AE180" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AF180" s="0" t="n">
         <v>5700</v>
@@ -4848,7 +4934,7 @@
     </row>
     <row r="181" spans="31:32" customHeight="1">
       <c r="AE181" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF181" s="0" t="n">
         <v>5700</v>
@@ -4856,7 +4942,7 @@
     </row>
     <row r="182" spans="31:32" customHeight="1">
       <c r="AE182" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF182" s="0" t="n">
         <v>10600</v>
@@ -4864,7 +4950,7 @@
     </row>
     <row r="183" spans="31:32" customHeight="1">
       <c r="AE183" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF183" s="0" t="n">
         <v>20000</v>
@@ -4872,7 +4958,7 @@
     </row>
     <row r="184" spans="31:32" customHeight="1">
       <c r="AE184" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AF184" s="0" t="n">
         <v>10600</v>
@@ -4880,7 +4966,7 @@
     </row>
     <row r="185" spans="31:32" customHeight="1">
       <c r="AE185" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF185" s="0" t="n">
         <v>5700</v>
@@ -4888,7 +4974,7 @@
     </row>
     <row r="186" spans="31:32" customHeight="1">
       <c r="AE186" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AF186" s="0" t="n">
         <v>5700</v>
@@ -4896,7 +4982,7 @@
     </row>
     <row r="187" spans="31:32" customHeight="1">
       <c r="AE187" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF187" s="0" t="n">
         <v>5700</v>
@@ -4904,7 +4990,7 @@
     </row>
     <row r="188" spans="31:32" customHeight="1">
       <c r="AE188" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AF188" s="0" t="n">
         <v>10600</v>
@@ -4912,7 +4998,7 @@
     </row>
     <row r="189" spans="31:32" customHeight="1">
       <c r="AE189" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF189" s="0" t="n">
         <v>5700</v>
@@ -4920,7 +5006,7 @@
     </row>
     <row r="190" spans="31:32" customHeight="1">
       <c r="AE190" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AF190" s="0" t="n">
         <v>10600</v>
@@ -4928,7 +5014,7 @@
     </row>
     <row r="191" spans="31:32" customHeight="1">
       <c r="AE191" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AF191" s="0" t="n">
         <v>10600</v>
@@ -4936,7 +5022,7 @@
     </row>
     <row r="192" spans="31:32" customHeight="1">
       <c r="AE192" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AF192" s="0" t="n">
         <v>5700</v>
@@ -4944,7 +5030,7 @@
     </row>
     <row r="193" spans="31:32" customHeight="1">
       <c r="AE193" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF193" s="0" t="n">
         <v>5700</v>
@@ -4952,7 +5038,7 @@
     </row>
     <row r="194" spans="31:32" customHeight="1">
       <c r="AE194" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF194" s="0" t="n">
         <v>5700</v>
@@ -4960,7 +5046,7 @@
     </row>
     <row r="195" spans="31:32" customHeight="1">
       <c r="AE195" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AF195" s="0" t="n">
         <v>5700</v>
@@ -4968,7 +5054,7 @@
     </row>
     <row r="196" spans="31:32" customHeight="1">
       <c r="AE196" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AF196" s="0" t="n">
         <v>5700</v>
@@ -4976,7 +5062,7 @@
     </row>
     <row r="197" spans="31:32" customHeight="1">
       <c r="AE197" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF197" s="0" t="n">
         <v>5700</v>
@@ -4984,7 +5070,7 @@
     </row>
     <row r="198" spans="31:32" customHeight="1">
       <c r="AE198" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF198" s="0" t="n">
         <v>10600</v>
@@ -4992,7 +5078,7 @@
     </row>
     <row r="199" spans="31:32" customHeight="1">
       <c r="AE199" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AF199" s="0" t="n">
         <v>10600</v>
@@ -5000,7 +5086,7 @@
     </row>
     <row r="200" spans="31:32" customHeight="1">
       <c r="AE200" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF200" s="0" t="n">
         <v>10600</v>
@@ -5008,7 +5094,7 @@
     </row>
     <row r="201" spans="31:32" customHeight="1">
       <c r="AE201" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AF201" s="0" t="n">
         <v>10600</v>
@@ -5016,7 +5102,7 @@
     </row>
     <row r="202" spans="31:32" customHeight="1">
       <c r="AE202" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AF202" s="0" t="n">
         <v>20000</v>
@@ -5024,7 +5110,7 @@
     </row>
     <row r="203" spans="31:32" customHeight="1">
       <c r="AE203" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF203" s="0" t="n">
         <v>10600</v>
@@ -5032,7 +5118,7 @@
     </row>
     <row r="204" spans="31:32" customHeight="1">
       <c r="AE204" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF204" s="0" t="n">
         <v>10600</v>
@@ -5040,7 +5126,7 @@
     </row>
     <row r="205" spans="31:32" customHeight="1">
       <c r="AE205" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AF205" s="0" t="n">
         <v>5700</v>
@@ -5048,7 +5134,7 @@
     </row>
     <row r="206" spans="31:32" customHeight="1">
       <c r="AE206" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AF206" s="0" t="n">
         <v>20000</v>
@@ -5056,7 +5142,7 @@
     </row>
     <row r="207" spans="31:32" customHeight="1">
       <c r="AE207" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AF207" s="0" t="n">
         <v>5700</v>
@@ -5064,7 +5150,7 @@
     </row>
     <row r="208" spans="31:32" customHeight="1">
       <c r="AE208" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF208" s="0" t="n">
         <v>10600</v>
@@ -5072,7 +5158,7 @@
     </row>
     <row r="209" spans="31:32" customHeight="1">
       <c r="AE209" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF209" s="0" t="n">
         <v>20000</v>
@@ -5080,7 +5166,7 @@
     </row>
     <row r="210" spans="31:32" customHeight="1">
       <c r="AE210" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AF210" s="0" t="n">
         <v>10600</v>
@@ -5088,7 +5174,7 @@
     </row>
     <row r="211" spans="31:32" customHeight="1">
       <c r="AE211" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF211" s="0" t="n">
         <v>5700</v>
@@ -5096,7 +5182,7 @@
     </row>
     <row r="212" spans="31:32" customHeight="1">
       <c r="AE212" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF212" s="0" t="n">
         <v>5700</v>
@@ -5104,7 +5190,7 @@
     </row>
     <row r="213" spans="31:32" customHeight="1">
       <c r="AE213" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF213" s="0" t="n">
         <v>20000</v>
@@ -5112,7 +5198,7 @@
     </row>
     <row r="214" spans="31:32" customHeight="1">
       <c r="AE214" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AF214" s="0" t="n">
         <v>5700</v>
@@ -5120,7 +5206,7 @@
     </row>
     <row r="215" spans="31:32" customHeight="1">
       <c r="AE215" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF215" s="0" t="n">
         <v>20000</v>
@@ -5128,7 +5214,7 @@
     </row>
     <row r="216" spans="31:32" customHeight="1">
       <c r="AE216" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF216" s="0" t="n">
         <v>5700</v>
@@ -5136,7 +5222,7 @@
     </row>
     <row r="217" spans="31:32" customHeight="1">
       <c r="AE217" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF217" s="0" t="n">
         <v>10600</v>
@@ -5144,7 +5230,7 @@
     </row>
     <row r="218" spans="31:32" customHeight="1">
       <c r="AE218" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AF218" s="0" t="n">
         <v>20000</v>
@@ -5152,7 +5238,7 @@
     </row>
     <row r="219" spans="31:32" customHeight="1">
       <c r="AE219" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AF219" s="0" t="n">
         <v>5700</v>
@@ -5160,7 +5246,7 @@
     </row>
     <row r="220" spans="31:32" customHeight="1">
       <c r="AE220" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF220" s="0" t="n">
         <v>5700</v>
@@ -5168,7 +5254,7 @@
     </row>
     <row r="221" spans="31:32" customHeight="1">
       <c r="AE221" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AF221" s="0" t="n">
         <v>10600</v>
@@ -5176,7 +5262,7 @@
     </row>
     <row r="222" spans="31:32" customHeight="1">
       <c r="AE222" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF222" s="0" t="n">
         <v>5700</v>
@@ -5184,7 +5270,7 @@
     </row>
     <row r="223" spans="31:32" customHeight="1">
       <c r="AE223" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF223" s="0" t="n">
         <v>10600</v>
@@ -5192,7 +5278,7 @@
     </row>
     <row r="224" spans="31:32" customHeight="1">
       <c r="AE224" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF224" s="0" t="n">
         <v>10600</v>
@@ -5200,7 +5286,7 @@
     </row>
     <row r="225" spans="31:32" customHeight="1">
       <c r="AE225" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF225" s="0" t="n">
         <v>5700</v>
@@ -5208,7 +5294,7 @@
     </row>
     <row r="226" spans="31:32" customHeight="1">
       <c r="AE226" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF226" s="0" t="n">
         <v>5700</v>
@@ -5216,7 +5302,7 @@
     </row>
     <row r="227" spans="31:32" customHeight="1">
       <c r="AE227" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF227" s="0" t="n">
         <v>20000</v>
@@ -5224,7 +5310,7 @@
     </row>
     <row r="228" spans="31:32" customHeight="1">
       <c r="AE228" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF228" s="0" t="n">
         <v>10600</v>
@@ -5232,7 +5318,7 @@
     </row>
     <row r="229" spans="31:32" customHeight="1">
       <c r="AE229" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AF229" s="0" t="n">
         <v>20000</v>
@@ -5240,7 +5326,7 @@
     </row>
     <row r="230" spans="31:32" customHeight="1">
       <c r="AE230" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AF230" s="0" t="n">
         <v>20000</v>
@@ -5248,7 +5334,7 @@
     </row>
     <row r="231" spans="31:32" customHeight="1">
       <c r="AE231" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF231" s="0" t="n">
         <v>5700</v>
@@ -5256,7 +5342,7 @@
     </row>
     <row r="232" spans="31:32" customHeight="1">
       <c r="AE232" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF232" s="0" t="n">
         <v>5700</v>
@@ -5264,7 +5350,7 @@
     </row>
     <row r="233" spans="31:32" customHeight="1">
       <c r="AE233" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF233" s="0" t="n">
         <v>5700</v>
@@ -5272,7 +5358,7 @@
     </row>
     <row r="234" spans="31:32" customHeight="1">
       <c r="AE234" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AF234" s="0" t="n">
         <v>10600</v>
@@ -5280,7 +5366,7 @@
     </row>
     <row r="235" spans="31:32" customHeight="1">
       <c r="AE235" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF235" s="0" t="n">
         <v>5700</v>
@@ -5288,7 +5374,7 @@
     </row>
     <row r="236" spans="31:32" customHeight="1">
       <c r="AE236" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AF236" s="0" t="n">
         <v>10600</v>
@@ -5296,7 +5382,7 @@
     </row>
     <row r="237" spans="31:32" customHeight="1">
       <c r="AE237" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AF237" s="0" t="n">
         <v>10600</v>
@@ -5304,7 +5390,7 @@
     </row>
     <row r="238" spans="31:32" customHeight="1">
       <c r="AE238" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF238" s="0" t="n">
         <v>20000</v>
@@ -5312,7 +5398,7 @@
     </row>
     <row r="239" spans="31:32" customHeight="1">
       <c r="AE239" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AF239" s="0" t="n">
         <v>20000</v>
@@ -5320,7 +5406,7 @@
     </row>
     <row r="240" spans="31:32" customHeight="1">
       <c r="AE240" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF240" s="0" t="n">
         <v>5700</v>
@@ -5328,7 +5414,7 @@
     </row>
     <row r="241" spans="31:32" customHeight="1">
       <c r="AE241" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF241" s="0" t="n">
         <v>5700</v>
@@ -5336,7 +5422,7 @@
     </row>
     <row r="242" spans="31:32" customHeight="1">
       <c r="AE242" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AF242" s="0" t="n">
         <v>10600</v>
@@ -5344,7 +5430,7 @@
     </row>
     <row r="243" spans="31:32" customHeight="1">
       <c r="AE243" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF243" s="0" t="n">
         <v>20000</v>
@@ -5352,7 +5438,7 @@
     </row>
     <row r="244" spans="31:32" customHeight="1">
       <c r="AE244" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF244" s="0" t="n">
         <v>5700</v>
@@ -5360,7 +5446,7 @@
     </row>
     <row r="245" spans="31:32" customHeight="1">
       <c r="AE245" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF245" s="0" t="n">
         <v>5700</v>
@@ -5368,7 +5454,7 @@
     </row>
     <row r="246" spans="31:32" customHeight="1">
       <c r="AE246" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF246" s="0" t="n">
         <v>20000</v>
@@ -5376,7 +5462,7 @@
     </row>
     <row r="247" spans="31:32" customHeight="1">
       <c r="AE247" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AF247" s="0" t="n">
         <v>10600</v>
@@ -5384,7 +5470,7 @@
     </row>
     <row r="248" spans="31:32" customHeight="1">
       <c r="AE248" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AF248" s="0" t="n">
         <v>5700</v>
@@ -5392,7 +5478,7 @@
     </row>
     <row r="249" spans="31:32" customHeight="1">
       <c r="AE249" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF249" s="0" t="n">
         <v>5700</v>
@@ -5400,7 +5486,7 @@
     </row>
     <row r="250" spans="31:32" customHeight="1">
       <c r="AE250" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF250" s="0" t="n">
         <v>5700</v>
@@ -5408,7 +5494,7 @@
     </row>
     <row r="251" spans="31:32" customHeight="1">
       <c r="AE251" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF251" s="0" t="n">
         <v>5700</v>
@@ -5416,7 +5502,7 @@
     </row>
     <row r="252" spans="31:32" customHeight="1">
       <c r="AE252" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF252" s="0" t="n">
         <v>5700</v>
@@ -5424,7 +5510,7 @@
     </row>
     <row r="253" spans="31:32" customHeight="1">
       <c r="AE253" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF253" s="0" t="n">
         <v>10600</v>
@@ -5432,7 +5518,7 @@
     </row>
     <row r="254" spans="31:32" customHeight="1">
       <c r="AE254" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AF254" s="0" t="n">
         <v>5700</v>
@@ -5440,7 +5526,7 @@
     </row>
     <row r="255" spans="31:32" customHeight="1">
       <c r="AE255" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AF255" s="0" t="n">
         <v>5700</v>
@@ -5448,7 +5534,7 @@
     </row>
     <row r="256" spans="31:32" customHeight="1">
       <c r="AE256" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF256" s="0" t="n">
         <v>5700</v>
@@ -5456,7 +5542,7 @@
     </row>
     <row r="257" spans="31:32" customHeight="1">
       <c r="AE257" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF257" s="0" t="n">
         <v>5700</v>
@@ -5464,7 +5550,7 @@
     </row>
     <row r="258" spans="31:32" customHeight="1">
       <c r="AE258" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF258" s="0" t="n">
         <v>5700</v>
@@ -5472,7 +5558,7 @@
     </row>
     <row r="259" spans="31:32" customHeight="1">
       <c r="AE259" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AF259" s="0" t="n">
         <v>20000</v>
@@ -5480,7 +5566,7 @@
     </row>
     <row r="260" spans="31:32" customHeight="1">
       <c r="AE260" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AF260" s="0" t="n">
         <v>5700</v>
@@ -5488,7 +5574,7 @@
     </row>
     <row r="261" spans="31:32" customHeight="1">
       <c r="AE261" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF261" s="0" t="n">
         <v>5700</v>
@@ -5496,7 +5582,7 @@
     </row>
     <row r="262" spans="31:32" customHeight="1">
       <c r="AE262" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF262" s="0" t="n">
         <v>20000</v>
@@ -5504,7 +5590,7 @@
     </row>
     <row r="263" spans="31:32" customHeight="1">
       <c r="AE263" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AF263" s="0" t="n">
         <v>20000</v>
@@ -5512,7 +5598,7 @@
     </row>
     <row r="264" spans="31:32" customHeight="1">
       <c r="AE264" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF264" s="0" t="n">
         <v>10600</v>
@@ -5520,7 +5606,7 @@
     </row>
     <row r="265" spans="31:32" customHeight="1">
       <c r="AE265" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AF265" s="0" t="n">
         <v>20000</v>
@@ -5528,7 +5614,7 @@
     </row>
     <row r="266" spans="31:32" customHeight="1">
       <c r="AE266" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF266" s="0" t="n">
         <v>5700</v>
@@ -5536,7 +5622,7 @@
     </row>
     <row r="267" spans="31:32" customHeight="1">
       <c r="AE267" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF267" s="0" t="n">
         <v>20000</v>
@@ -5544,7 +5630,7 @@
     </row>
     <row r="268" spans="31:32" customHeight="1">
       <c r="AE268" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AF268" s="0" t="n">
         <v>10600</v>
@@ -5552,7 +5638,7 @@
     </row>
     <row r="269" spans="31:32" customHeight="1">
       <c r="AE269" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AF269" s="0" t="n">
         <v>5700</v>
@@ -5560,7 +5646,7 @@
     </row>
     <row r="270" spans="31:32" customHeight="1">
       <c r="AE270" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF270" s="0" t="n">
         <v>10600</v>
@@ -5568,7 +5654,7 @@
     </row>
     <row r="271" spans="31:32" customHeight="1">
       <c r="AE271" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AF271" s="0" t="n">
         <v>5700</v>
@@ -5576,7 +5662,7 @@
     </row>
     <row r="272" spans="31:32" customHeight="1">
       <c r="AE272" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AF272" s="0" t="n">
         <v>20000</v>
@@ -5584,7 +5670,7 @@
     </row>
     <row r="273" spans="31:32" customHeight="1">
       <c r="AE273" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AF273" s="0" t="n">
         <v>5700</v>
@@ -5592,7 +5678,7 @@
     </row>
     <row r="274" spans="31:32" customHeight="1">
       <c r="AE274" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF274" s="0" t="n">
         <v>10600</v>
@@ -5600,7 +5686,7 @@
     </row>
     <row r="275" spans="31:32" customHeight="1">
       <c r="AE275" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF275" s="0" t="n">
         <v>10600</v>
@@ -5608,7 +5694,7 @@
     </row>
     <row r="276" spans="31:32" customHeight="1">
       <c r="AE276" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF276" s="0" t="n">
         <v>10600</v>
@@ -5616,7 +5702,7 @@
     </row>
     <row r="277" spans="31:32" customHeight="1">
       <c r="AE277" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF277" s="0" t="n">
         <v>5700</v>
@@ -5624,7 +5710,7 @@
     </row>
     <row r="278" spans="31:32" customHeight="1">
       <c r="AE278" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF278" s="0" t="n">
         <v>5700</v>
@@ -5632,7 +5718,7 @@
     </row>
     <row r="279" spans="31:32" customHeight="1">
       <c r="AE279" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF279" s="0" t="n">
         <v>5700</v>
@@ -5640,7 +5726,7 @@
     </row>
     <row r="280" spans="31:32" customHeight="1">
       <c r="AE280" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AF280" s="0" t="n">
         <v>5700</v>
@@ -5648,7 +5734,7 @@
     </row>
     <row r="281" spans="31:32" customHeight="1">
       <c r="AE281" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AF281" s="0" t="n">
         <v>10600</v>
@@ -5656,7 +5742,7 @@
     </row>
     <row r="282" spans="31:32" customHeight="1">
       <c r="AE282" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF282" s="0" t="n">
         <v>5700</v>
@@ -5664,7 +5750,7 @@
     </row>
     <row r="283" spans="31:32" customHeight="1">
       <c r="AE283" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF283" s="0" t="n">
         <v>5700</v>
@@ -5672,7 +5758,7 @@
     </row>
     <row r="284" spans="31:32" customHeight="1">
       <c r="AE284" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF284" s="0" t="n">
         <v>5700</v>
@@ -5680,7 +5766,7 @@
     </row>
     <row r="285" spans="31:32" customHeight="1">
       <c r="AE285" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AF285" s="0" t="n">
         <v>10600</v>
@@ -5688,7 +5774,7 @@
     </row>
     <row r="286" spans="31:32" customHeight="1">
       <c r="AE286" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF286" s="0" t="n">
         <v>20000</v>
@@ -5696,7 +5782,7 @@
     </row>
     <row r="287" spans="31:32" customHeight="1">
       <c r="AE287" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AF287" s="0" t="n">
         <v>5700</v>
@@ -5704,7 +5790,7 @@
     </row>
     <row r="288" spans="31:32" customHeight="1">
       <c r="AE288" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AF288" s="0" t="n">
         <v>20000</v>
@@ -5712,7 +5798,7 @@
     </row>
     <row r="289" spans="31:32" customHeight="1">
       <c r="AE289" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AF289" s="0" t="n">
         <v>10600</v>
@@ -5720,7 +5806,7 @@
     </row>
     <row r="290" spans="31:32" customHeight="1">
       <c r="AE290" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AF290" s="0" t="n">
         <v>20000</v>
@@ -5728,7 +5814,7 @@
     </row>
     <row r="291" spans="31:32" customHeight="1">
       <c r="AE291" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF291" s="0" t="n">
         <v>5700</v>
@@ -5736,7 +5822,7 @@
     </row>
     <row r="292" spans="31:32" customHeight="1">
       <c r="AE292" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF292" s="0" t="n">
         <v>5700</v>
@@ -5744,7 +5830,7 @@
     </row>
     <row r="293" spans="31:32" customHeight="1">
       <c r="AE293" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AF293" s="0" t="n">
         <v>5700</v>
@@ -5752,7 +5838,7 @@
     </row>
     <row r="294" spans="31:32" customHeight="1">
       <c r="AE294" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AF294" s="0" t="n">
         <v>10600</v>
@@ -5760,7 +5846,7 @@
     </row>
     <row r="295" spans="31:32" customHeight="1">
       <c r="AE295" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AF295" s="0" t="n">
         <v>20000</v>
@@ -5768,7 +5854,7 @@
     </row>
     <row r="296" spans="31:32" customHeight="1">
       <c r="AE296" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AF296" s="0" t="n">
         <v>5700</v>
@@ -5776,7 +5862,7 @@
     </row>
     <row r="297" spans="31:32" customHeight="1">
       <c r="AE297" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AF297" s="0" t="n">
         <v>5700</v>
@@ -5784,7 +5870,7 @@
     </row>
     <row r="298" spans="31:32" customHeight="1">
       <c r="AE298" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AF298" s="0" t="n">
         <v>5700</v>
@@ -5792,7 +5878,7 @@
     </row>
     <row r="299" spans="31:32" customHeight="1">
       <c r="AE299" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AF299" s="0" t="n">
         <v>10600</v>
@@ -5800,7 +5886,7 @@
     </row>
     <row r="300" spans="31:32" customHeight="1">
       <c r="AE300" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AF300" s="0" t="n">
         <v>5700</v>
@@ -5808,7 +5894,7 @@
     </row>
     <row r="301" spans="31:32" customHeight="1">
       <c r="AE301" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF301" s="0" t="n">
         <v>20000</v>
@@ -5816,7 +5902,7 @@
     </row>
     <row r="302" spans="31:32" customHeight="1">
       <c r="AE302" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AF302" s="0" t="n">
         <v>20000</v>
@@ -5824,7 +5910,7 @@
     </row>
     <row r="303" spans="31:32" customHeight="1">
       <c r="AE303" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF303" s="0" t="n">
         <v>5700</v>
@@ -5832,7 +5918,7 @@
     </row>
     <row r="304" spans="31:32" customHeight="1">
       <c r="AE304" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AF304" s="0" t="n">
         <v>5700</v>
@@ -5840,7 +5926,7 @@
     </row>
     <row r="305" spans="31:32" customHeight="1">
       <c r="AE305" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AF305" s="0" t="n">
         <v>10600</v>
@@ -5951,7 +6037,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>900</v>
@@ -5997,7 +6083,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>900</v>
@@ -6047,7 +6133,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>900</v>
@@ -6058,10 +6144,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D26)</f>
+        <f>SUM(D5:D24)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E26)</f>
+        <f>SUM(E5:E24)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -6091,7 +6177,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>900</v>
@@ -6102,7 +6188,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="26" t="n">
         <v>100</v>
@@ -6114,13 +6200,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -6145,7 +6231,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>900</v>
@@ -6156,10 +6242,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C6" s="26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D6" s="26">
         <f>COUNTA(F6:AD6)</f>
@@ -6168,13 +6254,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -6199,7 +6285,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>900</v>
@@ -6210,10 +6296,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C7" s="26" t="n">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="D7" s="26">
         <f>COUNTA(F7:AD7)</f>
@@ -6247,103 +6333,103 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1">
-      <c r="A8" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="26" t="n">
-        <v>120</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="A8" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="30" t="n">
+        <v>45</v>
+      </c>
+      <c r="D8" s="30">
         <f>COUNTA(F8:AD8)</f>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="30">
         <f>C8*D8</f>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
       <c r="AE8" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1">
-      <c r="A9" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="26" t="n">
-        <v>120</v>
-      </c>
-      <c r="D9" s="26">
+      <c r="A9" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" s="30">
         <f>COUNTA(F9:AD9)</f>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="30">
         <f>C9*D9</f>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>900</v>
@@ -6354,10 +6440,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C10" s="30" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D10" s="30">
         <f>COUNTA(F10:AD10)</f>
@@ -6391,7 +6477,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>900</v>
@@ -6402,10 +6488,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" s="30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D11" s="30">
         <f>COUNTA(F11:AD11)</f>
@@ -6439,7 +6525,7 @@
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>900</v>
@@ -6450,7 +6536,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>60</v>
@@ -6487,7 +6573,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>900</v>
@@ -6498,10 +6584,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13" s="30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D13" s="30">
         <f>COUNTA(F13:AD13)</f>
@@ -6535,7 +6621,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>900</v>
@@ -6546,10 +6632,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C14" s="30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D14" s="30">
         <f>COUNTA(F14:AD14)</f>
@@ -6583,7 +6669,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>900</v>
@@ -6594,10 +6680,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>51</v>
+        <v>369</v>
       </c>
       <c r="C15" s="30" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D15" s="30">
         <f>COUNTA(F15:AD15)</f>
@@ -6631,7 +6717,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>900</v>
@@ -6642,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>366</v>
+        <v>54</v>
       </c>
       <c r="C16" s="30" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D16" s="30">
         <f>COUNTA(F16:AD16)</f>
@@ -6679,7 +6765,7 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>900</v>
@@ -6690,7 +6776,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>60</v>
@@ -6727,103 +6813,103 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:32" customHeight="1">
-      <c r="A18" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="D18" s="30">
+      <c r="A18" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="26">
         <f>COUNTA(F18:AD18)</f>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="26">
         <f>C18*D18</f>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
       <c r="AE18" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1">
-      <c r="A19" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="C19" s="30" t="n">
-        <v>60</v>
-      </c>
-      <c r="D19" s="30">
+      <c r="A19" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="26">
         <f>COUNTA(F19:AD19)</f>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="26">
         <f>C19*D19</f>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
       <c r="AE19" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>900</v>
@@ -6834,10 +6920,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C20" s="26" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D20" s="26">
         <f>COUNTA(F20:AD20)</f>
@@ -6871,7 +6957,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>900</v>
@@ -6882,10 +6968,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C21" s="26" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D21" s="26">
         <f>COUNTA(F21:AD21)</f>
@@ -6919,7 +7005,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
       <c r="AE21" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>900</v>
@@ -6930,10 +7016,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C22" s="26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D22" s="26">
         <f>COUNTA(F22:AD22)</f>
@@ -6967,7 +7053,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>900</v>
@@ -6978,10 +7064,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C23" s="26" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" s="26">
         <f>COUNTA(F23:AD23)</f>
@@ -7015,7 +7101,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>900</v>
@@ -7026,7 +7112,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>30</v>
@@ -7063,103 +7149,23 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="1:32" customHeight="1">
-      <c r="A25" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="C25" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="D25" s="26">
-        <f>COUNTA(F25:AD25)</f>
-      </c>
-      <c r="E25" s="26">
-        <f>C25*D25</f>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
+    <row r="25" spans="31:32" customHeight="1">
       <c r="AE25" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:32" customHeight="1">
-      <c r="A26" s="26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="C26" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="D26" s="26">
-        <f>COUNTA(F26:AD26)</f>
-      </c>
-      <c r="E26" s="26">
-        <f>C26*D26</f>
-      </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
+    <row r="26" spans="31:32" customHeight="1">
       <c r="AE26" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>900</v>
@@ -7167,7 +7173,7 @@
     </row>
     <row r="27" spans="31:32" customHeight="1">
       <c r="AE27" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>900</v>
@@ -7175,7 +7181,7 @@
     </row>
     <row r="28" spans="31:32" customHeight="1">
       <c r="AE28" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>1350</v>
@@ -7183,7 +7189,7 @@
     </row>
     <row r="29" spans="31:32" customHeight="1">
       <c r="AE29" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>900</v>
@@ -7191,7 +7197,7 @@
     </row>
     <row r="30" spans="31:32" customHeight="1">
       <c r="AE30" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>900</v>
@@ -7199,7 +7205,7 @@
     </row>
     <row r="31" spans="31:32" customHeight="1">
       <c r="AE31" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>900</v>
@@ -7207,7 +7213,7 @@
     </row>
     <row r="32" spans="31:32" customHeight="1">
       <c r="AE32" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>900</v>
@@ -7215,7 +7221,7 @@
     </row>
     <row r="33" spans="31:32" customHeight="1">
       <c r="AE33" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>900</v>
@@ -7223,7 +7229,7 @@
     </row>
     <row r="34" spans="31:32" customHeight="1">
       <c r="AE34" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>900</v>
@@ -7231,7 +7237,7 @@
     </row>
     <row r="35" spans="31:32" customHeight="1">
       <c r="AE35" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>900</v>
@@ -7239,7 +7245,7 @@
     </row>
     <row r="36" spans="31:32" customHeight="1">
       <c r="AE36" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>900</v>
@@ -7247,7 +7253,7 @@
     </row>
     <row r="37" spans="31:32" customHeight="1">
       <c r="AE37" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>900</v>
@@ -7255,7 +7261,7 @@
     </row>
     <row r="38" spans="31:32" customHeight="1">
       <c r="AE38" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>900</v>
@@ -7263,7 +7269,7 @@
     </row>
     <row r="39" spans="31:32" customHeight="1">
       <c r="AE39" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>900</v>
@@ -7271,7 +7277,7 @@
     </row>
     <row r="40" spans="31:32" customHeight="1">
       <c r="AE40" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>1350</v>
@@ -7279,7 +7285,7 @@
     </row>
     <row r="41" spans="31:32" customHeight="1">
       <c r="AE41" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>900</v>
@@ -7287,7 +7293,7 @@
     </row>
     <row r="42" spans="31:32" customHeight="1">
       <c r="AE42" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>900</v>
@@ -7295,7 +7301,7 @@
     </row>
     <row r="43" spans="31:32" customHeight="1">
       <c r="AE43" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>900</v>
@@ -7303,7 +7309,7 @@
     </row>
     <row r="44" spans="31:32" customHeight="1">
       <c r="AE44" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>900</v>
@@ -7311,7 +7317,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>900</v>
@@ -7319,7 +7325,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>1350</v>
@@ -7327,7 +7333,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>900</v>
@@ -7335,7 +7341,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>900</v>
@@ -7343,7 +7349,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>900</v>
@@ -7351,7 +7357,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>900</v>
@@ -7359,7 +7365,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>2900</v>
@@ -7367,7 +7373,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>900</v>
@@ -7375,7 +7381,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>900</v>
@@ -7383,7 +7389,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>900</v>
@@ -7391,7 +7397,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>900</v>
@@ -7399,7 +7405,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>900</v>
@@ -7407,7 +7413,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>900</v>
@@ -7415,7 +7421,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>1350</v>
@@ -7423,7 +7429,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>1350</v>
@@ -7431,7 +7437,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>900</v>
@@ -7439,7 +7445,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>900</v>
@@ -7447,7 +7453,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>900</v>
@@ -7455,7 +7461,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>900</v>
@@ -7463,7 +7469,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>900</v>
@@ -7471,7 +7477,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>900</v>
@@ -7479,7 +7485,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>900</v>
@@ -7487,7 +7493,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>900</v>
@@ -7495,7 +7501,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>900</v>
@@ -7503,7 +7509,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>900</v>
@@ -7511,7 +7517,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>900</v>
@@ -7519,7 +7525,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>900</v>
@@ -7527,7 +7533,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>900</v>
@@ -7535,7 +7541,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>900</v>

--- a/src/lib/gen-server/port-battle.xlsx
+++ b/src/lib/gen-server/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Diana</t>
-  </si>
-  <si>
-    <t>Diana (i)</t>
   </si>
   <si>
     <t>Endymion</t>
@@ -1646,7 +1643,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>10600</v>
@@ -1692,7 +1689,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>5700</v>
@@ -1742,7 +1739,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>5700</v>
@@ -1753,10 +1750,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D47)</f>
+        <f>SUM(D5:D46)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E47)</f>
+        <f>SUM(E5:E46)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1786,7 +1783,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>5700</v>
@@ -1809,13 +1806,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="H5" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>362</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1840,7 +1837,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>10600</v>
@@ -1863,13 +1860,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>364</v>
-      </c>
       <c r="H6" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -1894,7 +1891,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>10600</v>
@@ -1942,7 +1939,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>5700</v>
@@ -1990,7 +1987,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>5700</v>
@@ -2038,7 +2035,7 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>5700</v>
@@ -2086,7 +2083,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>10600</v>
@@ -2134,7 +2131,7 @@
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>5700</v>
@@ -2182,7 +2179,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>5700</v>
@@ -2230,7 +2227,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>5700</v>
@@ -2278,7 +2275,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>5700</v>
@@ -2326,7 +2323,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>5700</v>
@@ -2374,7 +2371,7 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>10600</v>
@@ -2422,7 +2419,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
       <c r="AE17" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>5700</v>
@@ -2470,7 +2467,7 @@
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
       <c r="AE18" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>10600</v>
@@ -2518,7 +2515,7 @@
       <c r="AC19" s="28"/>
       <c r="AD19" s="28"/>
       <c r="AE19" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>5700</v>
@@ -2566,7 +2563,7 @@
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>10600</v>
@@ -2614,7 +2611,7 @@
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>20000</v>
@@ -2662,7 +2659,7 @@
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>5700</v>
@@ -2710,7 +2707,7 @@
       <c r="AC23" s="29"/>
       <c r="AD23" s="29"/>
       <c r="AE23" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>5700</v>
@@ -2758,7 +2755,7 @@
       <c r="AC24" s="29"/>
       <c r="AD24" s="29"/>
       <c r="AE24" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>5700</v>
@@ -2806,7 +2803,7 @@
       <c r="AC25" s="29"/>
       <c r="AD25" s="29"/>
       <c r="AE25" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>20000</v>
@@ -2854,7 +2851,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>10600</v>
@@ -2902,7 +2899,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>20000</v>
@@ -2916,7 +2913,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="26" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D28" s="26">
         <f>COUNTA(F28:AD28)</f>
@@ -2950,7 +2947,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>10600</v>
@@ -2964,7 +2961,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="26" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="D29" s="26">
         <f>COUNTA(F29:AD29)</f>
@@ -2998,7 +2995,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>20000</v>
@@ -3012,7 +3009,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="26" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D30" s="26">
         <f>COUNTA(F30:AD30)</f>
@@ -3046,7 +3043,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
       <c r="AE30" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>5700</v>
@@ -3060,7 +3057,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="26" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="D31" s="26">
         <f>COUNTA(F31:AD31)</f>
@@ -3094,7 +3091,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>5700</v>
@@ -3108,7 +3105,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="26" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D32" s="26">
         <f>COUNTA(F32:AD32)</f>
@@ -3142,7 +3139,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>10600</v>
@@ -3156,7 +3153,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="26" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D33" s="26">
         <f>COUNTA(F33:AD33)</f>
@@ -3190,7 +3187,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>5700</v>
@@ -3204,7 +3201,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="26" t="n">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="D34" s="26">
         <f>COUNTA(F34:AD34)</f>
@@ -3238,7 +3235,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>20000</v>
@@ -3252,7 +3249,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="26" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D35" s="26">
         <f>COUNTA(F35:AD35)</f>
@@ -3286,7 +3283,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
       <c r="AE35" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>5700</v>
@@ -3334,7 +3331,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>5700</v>
@@ -3348,7 +3345,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="26" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D37" s="26">
         <f>COUNTA(F37:AD37)</f>
@@ -3382,7 +3379,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>20000</v>
@@ -3396,7 +3393,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="26" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D38" s="26">
         <f>COUNTA(F38:AD38)</f>
@@ -3430,7 +3427,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
       <c r="AE38" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>10600</v>
@@ -3444,7 +3441,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="26" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D39" s="26">
         <f>COUNTA(F39:AD39)</f>
@@ -3478,7 +3475,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
       <c r="AE39" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>5700</v>
@@ -3492,7 +3489,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="26" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D40" s="26">
         <f>COUNTA(F40:AD40)</f>
@@ -3526,7 +3523,7 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
       <c r="AE40" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>5700</v>
@@ -3540,7 +3537,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="26" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D41" s="26">
         <f>COUNTA(F41:AD41)</f>
@@ -3574,7 +3571,7 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
       <c r="AE41" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>5700</v>
@@ -3588,7 +3585,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="26" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="D42" s="26">
         <f>COUNTA(F42:AD42)</f>
@@ -3622,55 +3619,55 @@
       <c r="AC42" s="28"/>
       <c r="AD42" s="28"/>
       <c r="AE42" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF42" s="0" t="n">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" customHeight="1">
+      <c r="A43" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="D43" s="30">
+        <f>COUNTA(F43:AD43)</f>
+      </c>
+      <c r="E43" s="30">
+        <f>C43*D43</f>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="AF42" s="0" t="n">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" customHeight="1">
-      <c r="A43" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="26" t="n">
-        <v>260</v>
-      </c>
-      <c r="D43" s="26">
-        <f>COUNTA(F43:AD43)</f>
-      </c>
-      <c r="E43" s="26">
-        <f>C43*D43</f>
-      </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>5700</v>
@@ -3684,7 +3681,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D44" s="30">
         <f>COUNTA(F44:AD44)</f>
@@ -3718,7 +3715,7 @@
       <c r="AC44" s="29"/>
       <c r="AD44" s="29"/>
       <c r="AE44" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>5700</v>
@@ -3732,7 +3729,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D45" s="30">
         <f>COUNTA(F45:AD45)</f>
@@ -3766,7 +3763,7 @@
       <c r="AC45" s="29"/>
       <c r="AD45" s="29"/>
       <c r="AE45" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>5700</v>
@@ -3780,7 +3777,7 @@
         <v>53</v>
       </c>
       <c r="C46" s="30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D46" s="30">
         <f>COUNTA(F46:AD46)</f>
@@ -3814,55 +3811,15 @@
       <c r="AC46" s="29"/>
       <c r="AD46" s="29"/>
       <c r="AE46" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="1:32" customHeight="1">
-      <c r="A47" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="30" t="n">
+    <row r="47" spans="31:32" customHeight="1">
+      <c r="AE47" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="D47" s="30">
-        <f>COUNTA(F47:AD47)</f>
-      </c>
-      <c r="E47" s="30">
-        <f>C47*D47</f>
-      </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>5700</v>
@@ -3870,7 +3827,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>5700</v>
@@ -3878,7 +3835,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>5700</v>
@@ -3886,7 +3843,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>5700</v>
@@ -3894,7 +3851,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>20000</v>
@@ -3902,7 +3859,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>20000</v>
@@ -3910,7 +3867,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>10600</v>
@@ -3918,7 +3875,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>10600</v>
@@ -3926,7 +3883,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>5700</v>
@@ -3934,7 +3891,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>20000</v>
@@ -3942,7 +3899,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>5700</v>
@@ -3950,7 +3907,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>5700</v>
@@ -3958,7 +3915,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>10600</v>
@@ -3966,7 +3923,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>5700</v>
@@ -3974,7 +3931,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>5700</v>
@@ -3982,7 +3939,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>5700</v>
@@ -3990,7 +3947,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>5700</v>
@@ -3998,7 +3955,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>5700</v>
@@ -4006,7 +3963,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>20000</v>
@@ -4014,7 +3971,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>5700</v>
@@ -4022,7 +3979,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>10600</v>
@@ -4030,7 +3987,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>20000</v>
@@ -4038,7 +3995,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>20000</v>
@@ -4046,7 +4003,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>10600</v>
@@ -4054,7 +4011,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>5700</v>
@@ -4062,7 +4019,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>5700</v>
@@ -4070,7 +4027,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>5700</v>
@@ -4078,7 +4035,7 @@
     </row>
     <row r="74" spans="31:32" customHeight="1">
       <c r="AE74" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF74" s="0" t="n">
         <v>5700</v>
@@ -4086,7 +4043,7 @@
     </row>
     <row r="75" spans="31:32" customHeight="1">
       <c r="AE75" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF75" s="0" t="n">
         <v>5700</v>
@@ -4094,7 +4051,7 @@
     </row>
     <row r="76" spans="31:32" customHeight="1">
       <c r="AE76" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF76" s="0" t="n">
         <v>5700</v>
@@ -4102,7 +4059,7 @@
     </row>
     <row r="77" spans="31:32" customHeight="1">
       <c r="AE77" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF77" s="0" t="n">
         <v>5700</v>
@@ -4110,7 +4067,7 @@
     </row>
     <row r="78" spans="31:32" customHeight="1">
       <c r="AE78" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF78" s="0" t="n">
         <v>5700</v>
@@ -4118,7 +4075,7 @@
     </row>
     <row r="79" spans="31:32" customHeight="1">
       <c r="AE79" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF79" s="0" t="n">
         <v>20000</v>
@@ -4126,7 +4083,7 @@
     </row>
     <row r="80" spans="31:32" customHeight="1">
       <c r="AE80" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF80" s="0" t="n">
         <v>5700</v>
@@ -4134,7 +4091,7 @@
     </row>
     <row r="81" spans="31:32" customHeight="1">
       <c r="AE81" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF81" s="0" t="n">
         <v>5700</v>
@@ -4142,7 +4099,7 @@
     </row>
     <row r="82" spans="31:32" customHeight="1">
       <c r="AE82" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF82" s="0" t="n">
         <v>20000</v>
@@ -4150,7 +4107,7 @@
     </row>
     <row r="83" spans="31:32" customHeight="1">
       <c r="AE83" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF83" s="0" t="n">
         <v>5700</v>
@@ -4158,7 +4115,7 @@
     </row>
     <row r="84" spans="31:32" customHeight="1">
       <c r="AE84" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF84" s="0" t="n">
         <v>10600</v>
@@ -4166,7 +4123,7 @@
     </row>
     <row r="85" spans="31:32" customHeight="1">
       <c r="AE85" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF85" s="0" t="n">
         <v>5700</v>
@@ -4174,7 +4131,7 @@
     </row>
     <row r="86" spans="31:32" customHeight="1">
       <c r="AE86" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF86" s="0" t="n">
         <v>5700</v>
@@ -4182,7 +4139,7 @@
     </row>
     <row r="87" spans="31:32" customHeight="1">
       <c r="AE87" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF87" s="0" t="n">
         <v>5700</v>
@@ -4190,7 +4147,7 @@
     </row>
     <row r="88" spans="31:32" customHeight="1">
       <c r="AE88" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF88" s="0" t="n">
         <v>5700</v>
@@ -4198,7 +4155,7 @@
     </row>
     <row r="89" spans="31:32" customHeight="1">
       <c r="AE89" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF89" s="0" t="n">
         <v>5700</v>
@@ -4206,7 +4163,7 @@
     </row>
     <row r="90" spans="31:32" customHeight="1">
       <c r="AE90" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF90" s="0" t="n">
         <v>5700</v>
@@ -4214,7 +4171,7 @@
     </row>
     <row r="91" spans="31:32" customHeight="1">
       <c r="AE91" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF91" s="0" t="n">
         <v>5700</v>
@@ -4222,7 +4179,7 @@
     </row>
     <row r="92" spans="31:32" customHeight="1">
       <c r="AE92" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF92" s="0" t="n">
         <v>10600</v>
@@ -4230,7 +4187,7 @@
     </row>
     <row r="93" spans="31:32" customHeight="1">
       <c r="AE93" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF93" s="0" t="n">
         <v>5700</v>
@@ -4238,7 +4195,7 @@
     </row>
     <row r="94" spans="31:32" customHeight="1">
       <c r="AE94" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF94" s="0" t="n">
         <v>5700</v>
@@ -4246,7 +4203,7 @@
     </row>
     <row r="95" spans="31:32" customHeight="1">
       <c r="AE95" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF95" s="0" t="n">
         <v>5700</v>
@@ -4254,7 +4211,7 @@
     </row>
     <row r="96" spans="31:32" customHeight="1">
       <c r="AE96" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF96" s="0" t="n">
         <v>5700</v>
@@ -4262,7 +4219,7 @@
     </row>
     <row r="97" spans="31:32" customHeight="1">
       <c r="AE97" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF97" s="0" t="n">
         <v>5700</v>
@@ -4270,7 +4227,7 @@
     </row>
     <row r="98" spans="31:32" customHeight="1">
       <c r="AE98" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF98" s="0" t="n">
         <v>10600</v>
@@ -4278,7 +4235,7 @@
     </row>
     <row r="99" spans="31:32" customHeight="1">
       <c r="AE99" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF99" s="0" t="n">
         <v>20000</v>
@@ -4286,7 +4243,7 @@
     </row>
     <row r="100" spans="31:32" customHeight="1">
       <c r="AE100" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF100" s="0" t="n">
         <v>10600</v>
@@ -4294,7 +4251,7 @@
     </row>
     <row r="101" spans="31:32" customHeight="1">
       <c r="AE101" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF101" s="0" t="n">
         <v>5700</v>
@@ -4302,7 +4259,7 @@
     </row>
     <row r="102" spans="31:32" customHeight="1">
       <c r="AE102" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF102" s="0" t="n">
         <v>5700</v>
@@ -4310,7 +4267,7 @@
     </row>
     <row r="103" spans="31:32" customHeight="1">
       <c r="AE103" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF103" s="0" t="n">
         <v>5700</v>
@@ -4318,7 +4275,7 @@
     </row>
     <row r="104" spans="31:32" customHeight="1">
       <c r="AE104" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF104" s="0" t="n">
         <v>20000</v>
@@ -4326,7 +4283,7 @@
     </row>
     <row r="105" spans="31:32" customHeight="1">
       <c r="AE105" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF105" s="0" t="n">
         <v>5700</v>
@@ -4334,7 +4291,7 @@
     </row>
     <row r="106" spans="31:32" customHeight="1">
       <c r="AE106" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF106" s="0" t="n">
         <v>5700</v>
@@ -4342,7 +4299,7 @@
     </row>
     <row r="107" spans="31:32" customHeight="1">
       <c r="AE107" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF107" s="0" t="n">
         <v>10600</v>
@@ -4350,7 +4307,7 @@
     </row>
     <row r="108" spans="31:32" customHeight="1">
       <c r="AE108" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF108" s="0" t="n">
         <v>10600</v>
@@ -4358,7 +4315,7 @@
     </row>
     <row r="109" spans="31:32" customHeight="1">
       <c r="AE109" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF109" s="0" t="n">
         <v>5700</v>
@@ -4366,7 +4323,7 @@
     </row>
     <row r="110" spans="31:32" customHeight="1">
       <c r="AE110" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF110" s="0" t="n">
         <v>5700</v>
@@ -4374,7 +4331,7 @@
     </row>
     <row r="111" spans="31:32" customHeight="1">
       <c r="AE111" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF111" s="0" t="n">
         <v>5700</v>
@@ -4382,7 +4339,7 @@
     </row>
     <row r="112" spans="31:32" customHeight="1">
       <c r="AE112" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF112" s="0" t="n">
         <v>5700</v>
@@ -4390,7 +4347,7 @@
     </row>
     <row r="113" spans="31:32" customHeight="1">
       <c r="AE113" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF113" s="0" t="n">
         <v>10600</v>
@@ -4398,7 +4355,7 @@
     </row>
     <row r="114" spans="31:32" customHeight="1">
       <c r="AE114" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF114" s="0" t="n">
         <v>5700</v>
@@ -4406,7 +4363,7 @@
     </row>
     <row r="115" spans="31:32" customHeight="1">
       <c r="AE115" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF115" s="0" t="n">
         <v>5700</v>
@@ -4414,7 +4371,7 @@
     </row>
     <row r="116" spans="31:32" customHeight="1">
       <c r="AE116" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF116" s="0" t="n">
         <v>5700</v>
@@ -4422,7 +4379,7 @@
     </row>
     <row r="117" spans="31:32" customHeight="1">
       <c r="AE117" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF117" s="0" t="n">
         <v>10600</v>
@@ -4430,7 +4387,7 @@
     </row>
     <row r="118" spans="31:32" customHeight="1">
       <c r="AE118" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF118" s="0" t="n">
         <v>20000</v>
@@ -4438,7 +4395,7 @@
     </row>
     <row r="119" spans="31:32" customHeight="1">
       <c r="AE119" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF119" s="0" t="n">
         <v>5700</v>
@@ -4446,7 +4403,7 @@
     </row>
     <row r="120" spans="31:32" customHeight="1">
       <c r="AE120" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF120" s="0" t="n">
         <v>10600</v>
@@ -4454,7 +4411,7 @@
     </row>
     <row r="121" spans="31:32" customHeight="1">
       <c r="AE121" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF121" s="0" t="n">
         <v>5700</v>
@@ -4462,7 +4419,7 @@
     </row>
     <row r="122" spans="31:32" customHeight="1">
       <c r="AE122" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF122" s="0" t="n">
         <v>10600</v>
@@ -4470,7 +4427,7 @@
     </row>
     <row r="123" spans="31:32" customHeight="1">
       <c r="AE123" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF123" s="0" t="n">
         <v>10600</v>
@@ -4478,7 +4435,7 @@
     </row>
     <row r="124" spans="31:32" customHeight="1">
       <c r="AE124" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF124" s="0" t="n">
         <v>5700</v>
@@ -4486,7 +4443,7 @@
     </row>
     <row r="125" spans="31:32" customHeight="1">
       <c r="AE125" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF125" s="0" t="n">
         <v>10600</v>
@@ -4494,7 +4451,7 @@
     </row>
     <row r="126" spans="31:32" customHeight="1">
       <c r="AE126" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF126" s="0" t="n">
         <v>5700</v>
@@ -4502,7 +4459,7 @@
     </row>
     <row r="127" spans="31:32" customHeight="1">
       <c r="AE127" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF127" s="0" t="n">
         <v>5700</v>
@@ -4510,7 +4467,7 @@
     </row>
     <row r="128" spans="31:32" customHeight="1">
       <c r="AE128" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF128" s="0" t="n">
         <v>5700</v>
@@ -4518,7 +4475,7 @@
     </row>
     <row r="129" spans="31:32" customHeight="1">
       <c r="AE129" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF129" s="0" t="n">
         <v>20000</v>
@@ -4526,7 +4483,7 @@
     </row>
     <row r="130" spans="31:32" customHeight="1">
       <c r="AE130" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF130" s="0" t="n">
         <v>10600</v>
@@ -4534,7 +4491,7 @@
     </row>
     <row r="131" spans="31:32" customHeight="1">
       <c r="AE131" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF131" s="0" t="n">
         <v>5700</v>
@@ -4542,7 +4499,7 @@
     </row>
     <row r="132" spans="31:32" customHeight="1">
       <c r="AE132" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF132" s="0" t="n">
         <v>5700</v>
@@ -4550,7 +4507,7 @@
     </row>
     <row r="133" spans="31:32" customHeight="1">
       <c r="AE133" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF133" s="0" t="n">
         <v>20000</v>
@@ -4558,7 +4515,7 @@
     </row>
     <row r="134" spans="31:32" customHeight="1">
       <c r="AE134" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF134" s="0" t="n">
         <v>5700</v>
@@ -4566,7 +4523,7 @@
     </row>
     <row r="135" spans="31:32" customHeight="1">
       <c r="AE135" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>5700</v>
@@ -4574,7 +4531,7 @@
     </row>
     <row r="136" spans="31:32" customHeight="1">
       <c r="AE136" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF136" s="0" t="n">
         <v>5700</v>
@@ -4582,7 +4539,7 @@
     </row>
     <row r="137" spans="31:32" customHeight="1">
       <c r="AE137" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF137" s="0" t="n">
         <v>5700</v>
@@ -4590,7 +4547,7 @@
     </row>
     <row r="138" spans="31:32" customHeight="1">
       <c r="AE138" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF138" s="0" t="n">
         <v>5700</v>
@@ -4598,7 +4555,7 @@
     </row>
     <row r="139" spans="31:32" customHeight="1">
       <c r="AE139" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF139" s="0" t="n">
         <v>5700</v>
@@ -4606,7 +4563,7 @@
     </row>
     <row r="140" spans="31:32" customHeight="1">
       <c r="AE140" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF140" s="0" t="n">
         <v>10600</v>
@@ -4614,7 +4571,7 @@
     </row>
     <row r="141" spans="31:32" customHeight="1">
       <c r="AE141" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF141" s="0" t="n">
         <v>5700</v>
@@ -4622,7 +4579,7 @@
     </row>
     <row r="142" spans="31:32" customHeight="1">
       <c r="AE142" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF142" s="0" t="n">
         <v>5700</v>
@@ -4630,7 +4587,7 @@
     </row>
     <row r="143" spans="31:32" customHeight="1">
       <c r="AE143" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF143" s="0" t="n">
         <v>5700</v>
@@ -4638,7 +4595,7 @@
     </row>
     <row r="144" spans="31:32" customHeight="1">
       <c r="AE144" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF144" s="0" t="n">
         <v>5700</v>
@@ -4646,7 +4603,7 @@
     </row>
     <row r="145" spans="31:32" customHeight="1">
       <c r="AE145" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF145" s="0" t="n">
         <v>10600</v>
@@ -4654,7 +4611,7 @@
     </row>
     <row r="146" spans="31:32" customHeight="1">
       <c r="AE146" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF146" s="0" t="n">
         <v>20000</v>
@@ -4662,7 +4619,7 @@
     </row>
     <row r="147" spans="31:32" customHeight="1">
       <c r="AE147" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF147" s="0" t="n">
         <v>10600</v>
@@ -4670,7 +4627,7 @@
     </row>
     <row r="148" spans="31:32" customHeight="1">
       <c r="AE148" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF148" s="0" t="n">
         <v>5700</v>
@@ -4678,7 +4635,7 @@
     </row>
     <row r="149" spans="31:32" customHeight="1">
       <c r="AE149" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF149" s="0" t="n">
         <v>5700</v>
@@ -4686,7 +4643,7 @@
     </row>
     <row r="150" spans="31:32" customHeight="1">
       <c r="AE150" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF150" s="0" t="n">
         <v>5700</v>
@@ -4694,7 +4651,7 @@
     </row>
     <row r="151" spans="31:32" customHeight="1">
       <c r="AE151" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF151" s="0" t="n">
         <v>5700</v>
@@ -4702,7 +4659,7 @@
     </row>
     <row r="152" spans="31:32" customHeight="1">
       <c r="AE152" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF152" s="0" t="n">
         <v>10600</v>
@@ -4710,7 +4667,7 @@
     </row>
     <row r="153" spans="31:32" customHeight="1">
       <c r="AE153" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF153" s="0" t="n">
         <v>5700</v>
@@ -4718,7 +4675,7 @@
     </row>
     <row r="154" spans="31:32" customHeight="1">
       <c r="AE154" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF154" s="0" t="n">
         <v>5700</v>
@@ -4726,7 +4683,7 @@
     </row>
     <row r="155" spans="31:32" customHeight="1">
       <c r="AE155" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF155" s="0" t="n">
         <v>5700</v>
@@ -4734,7 +4691,7 @@
     </row>
     <row r="156" spans="31:32" customHeight="1">
       <c r="AE156" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF156" s="0" t="n">
         <v>10600</v>
@@ -4742,7 +4699,7 @@
     </row>
     <row r="157" spans="31:32" customHeight="1">
       <c r="AE157" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF157" s="0" t="n">
         <v>5700</v>
@@ -4750,7 +4707,7 @@
     </row>
     <row r="158" spans="31:32" customHeight="1">
       <c r="AE158" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF158" s="0" t="n">
         <v>20000</v>
@@ -4758,7 +4715,7 @@
     </row>
     <row r="159" spans="31:32" customHeight="1">
       <c r="AE159" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF159" s="0" t="n">
         <v>5700</v>
@@ -4766,7 +4723,7 @@
     </row>
     <row r="160" spans="31:32" customHeight="1">
       <c r="AE160" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF160" s="0" t="n">
         <v>10600</v>
@@ -4774,7 +4731,7 @@
     </row>
     <row r="161" spans="31:32" customHeight="1">
       <c r="AE161" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF161" s="0" t="n">
         <v>5700</v>
@@ -4782,7 +4739,7 @@
     </row>
     <row r="162" spans="31:32" customHeight="1">
       <c r="AE162" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF162" s="0" t="n">
         <v>20000</v>
@@ -4790,7 +4747,7 @@
     </row>
     <row r="163" spans="31:32" customHeight="1">
       <c r="AE163" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF163" s="0" t="n">
         <v>10600</v>
@@ -4798,7 +4755,7 @@
     </row>
     <row r="164" spans="31:32" customHeight="1">
       <c r="AE164" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF164" s="0" t="n">
         <v>5700</v>
@@ -4806,7 +4763,7 @@
     </row>
     <row r="165" spans="31:32" customHeight="1">
       <c r="AE165" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF165" s="0" t="n">
         <v>5700</v>
@@ -4814,7 +4771,7 @@
     </row>
     <row r="166" spans="31:32" customHeight="1">
       <c r="AE166" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF166" s="0" t="n">
         <v>10600</v>
@@ -4822,7 +4779,7 @@
     </row>
     <row r="167" spans="31:32" customHeight="1">
       <c r="AE167" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF167" s="0" t="n">
         <v>10600</v>
@@ -4830,7 +4787,7 @@
     </row>
     <row r="168" spans="31:32" customHeight="1">
       <c r="AE168" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF168" s="0" t="n">
         <v>20000</v>
@@ -4838,7 +4795,7 @@
     </row>
     <row r="169" spans="31:32" customHeight="1">
       <c r="AE169" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF169" s="0" t="n">
         <v>5700</v>
@@ -4846,7 +4803,7 @@
     </row>
     <row r="170" spans="31:32" customHeight="1">
       <c r="AE170" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF170" s="0" t="n">
         <v>5700</v>
@@ -4854,7 +4811,7 @@
     </row>
     <row r="171" spans="31:32" customHeight="1">
       <c r="AE171" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF171" s="0" t="n">
         <v>5700</v>
@@ -4862,7 +4819,7 @@
     </row>
     <row r="172" spans="31:32" customHeight="1">
       <c r="AE172" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF172" s="0" t="n">
         <v>5700</v>
@@ -4870,7 +4827,7 @@
     </row>
     <row r="173" spans="31:32" customHeight="1">
       <c r="AE173" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF173" s="0" t="n">
         <v>5700</v>
@@ -4878,7 +4835,7 @@
     </row>
     <row r="174" spans="31:32" customHeight="1">
       <c r="AE174" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF174" s="0" t="n">
         <v>5700</v>
@@ -4886,7 +4843,7 @@
     </row>
     <row r="175" spans="31:32" customHeight="1">
       <c r="AE175" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF175" s="0" t="n">
         <v>5700</v>
@@ -4894,7 +4851,7 @@
     </row>
     <row r="176" spans="31:32" customHeight="1">
       <c r="AE176" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF176" s="0" t="n">
         <v>5700</v>
@@ -4902,7 +4859,7 @@
     </row>
     <row r="177" spans="31:32" customHeight="1">
       <c r="AE177" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF177" s="0" t="n">
         <v>20000</v>
@@ -4910,7 +4867,7 @@
     </row>
     <row r="178" spans="31:32" customHeight="1">
       <c r="AE178" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF178" s="0" t="n">
         <v>20000</v>
@@ -4918,7 +4875,7 @@
     </row>
     <row r="179" spans="31:32" customHeight="1">
       <c r="AE179" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF179" s="0" t="n">
         <v>20000</v>
@@ -4926,7 +4883,7 @@
     </row>
     <row r="180" spans="31:32" customHeight="1">
       <c r="AE180" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF180" s="0" t="n">
         <v>5700</v>
@@ -4934,7 +4891,7 @@
     </row>
     <row r="181" spans="31:32" customHeight="1">
       <c r="AE181" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF181" s="0" t="n">
         <v>5700</v>
@@ -4942,7 +4899,7 @@
     </row>
     <row r="182" spans="31:32" customHeight="1">
       <c r="AE182" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF182" s="0" t="n">
         <v>10600</v>
@@ -4950,7 +4907,7 @@
     </row>
     <row r="183" spans="31:32" customHeight="1">
       <c r="AE183" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF183" s="0" t="n">
         <v>20000</v>
@@ -4958,7 +4915,7 @@
     </row>
     <row r="184" spans="31:32" customHeight="1">
       <c r="AE184" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF184" s="0" t="n">
         <v>10600</v>
@@ -4966,7 +4923,7 @@
     </row>
     <row r="185" spans="31:32" customHeight="1">
       <c r="AE185" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF185" s="0" t="n">
         <v>5700</v>
@@ -4974,7 +4931,7 @@
     </row>
     <row r="186" spans="31:32" customHeight="1">
       <c r="AE186" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF186" s="0" t="n">
         <v>5700</v>
@@ -4982,7 +4939,7 @@
     </row>
     <row r="187" spans="31:32" customHeight="1">
       <c r="AE187" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF187" s="0" t="n">
         <v>5700</v>
@@ -4990,7 +4947,7 @@
     </row>
     <row r="188" spans="31:32" customHeight="1">
       <c r="AE188" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF188" s="0" t="n">
         <v>10600</v>
@@ -4998,7 +4955,7 @@
     </row>
     <row r="189" spans="31:32" customHeight="1">
       <c r="AE189" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF189" s="0" t="n">
         <v>5700</v>
@@ -5006,7 +4963,7 @@
     </row>
     <row r="190" spans="31:32" customHeight="1">
       <c r="AE190" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF190" s="0" t="n">
         <v>10600</v>
@@ -5014,7 +4971,7 @@
     </row>
     <row r="191" spans="31:32" customHeight="1">
       <c r="AE191" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF191" s="0" t="n">
         <v>10600</v>
@@ -5022,7 +4979,7 @@
     </row>
     <row r="192" spans="31:32" customHeight="1">
       <c r="AE192" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF192" s="0" t="n">
         <v>5700</v>
@@ -5030,7 +4987,7 @@
     </row>
     <row r="193" spans="31:32" customHeight="1">
       <c r="AE193" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF193" s="0" t="n">
         <v>5700</v>
@@ -5038,7 +4995,7 @@
     </row>
     <row r="194" spans="31:32" customHeight="1">
       <c r="AE194" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF194" s="0" t="n">
         <v>5700</v>
@@ -5046,7 +5003,7 @@
     </row>
     <row r="195" spans="31:32" customHeight="1">
       <c r="AE195" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF195" s="0" t="n">
         <v>5700</v>
@@ -5054,7 +5011,7 @@
     </row>
     <row r="196" spans="31:32" customHeight="1">
       <c r="AE196" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF196" s="0" t="n">
         <v>5700</v>
@@ -5062,7 +5019,7 @@
     </row>
     <row r="197" spans="31:32" customHeight="1">
       <c r="AE197" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF197" s="0" t="n">
         <v>5700</v>
@@ -5070,7 +5027,7 @@
     </row>
     <row r="198" spans="31:32" customHeight="1">
       <c r="AE198" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF198" s="0" t="n">
         <v>10600</v>
@@ -5078,7 +5035,7 @@
     </row>
     <row r="199" spans="31:32" customHeight="1">
       <c r="AE199" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF199" s="0" t="n">
         <v>10600</v>
@@ -5086,7 +5043,7 @@
     </row>
     <row r="200" spans="31:32" customHeight="1">
       <c r="AE200" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF200" s="0" t="n">
         <v>10600</v>
@@ -5094,7 +5051,7 @@
     </row>
     <row r="201" spans="31:32" customHeight="1">
       <c r="AE201" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF201" s="0" t="n">
         <v>10600</v>
@@ -5102,7 +5059,7 @@
     </row>
     <row r="202" spans="31:32" customHeight="1">
       <c r="AE202" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF202" s="0" t="n">
         <v>20000</v>
@@ -5110,7 +5067,7 @@
     </row>
     <row r="203" spans="31:32" customHeight="1">
       <c r="AE203" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF203" s="0" t="n">
         <v>10600</v>
@@ -5118,7 +5075,7 @@
     </row>
     <row r="204" spans="31:32" customHeight="1">
       <c r="AE204" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF204" s="0" t="n">
         <v>10600</v>
@@ -5126,7 +5083,7 @@
     </row>
     <row r="205" spans="31:32" customHeight="1">
       <c r="AE205" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF205" s="0" t="n">
         <v>5700</v>
@@ -5134,7 +5091,7 @@
     </row>
     <row r="206" spans="31:32" customHeight="1">
       <c r="AE206" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF206" s="0" t="n">
         <v>20000</v>
@@ -5142,7 +5099,7 @@
     </row>
     <row r="207" spans="31:32" customHeight="1">
       <c r="AE207" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF207" s="0" t="n">
         <v>5700</v>
@@ -5150,7 +5107,7 @@
     </row>
     <row r="208" spans="31:32" customHeight="1">
       <c r="AE208" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF208" s="0" t="n">
         <v>10600</v>
@@ -5158,7 +5115,7 @@
     </row>
     <row r="209" spans="31:32" customHeight="1">
       <c r="AE209" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF209" s="0" t="n">
         <v>20000</v>
@@ -5166,7 +5123,7 @@
     </row>
     <row r="210" spans="31:32" customHeight="1">
       <c r="AE210" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF210" s="0" t="n">
         <v>10600</v>
@@ -5174,7 +5131,7 @@
     </row>
     <row r="211" spans="31:32" customHeight="1">
       <c r="AE211" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF211" s="0" t="n">
         <v>5700</v>
@@ -5182,7 +5139,7 @@
     </row>
     <row r="212" spans="31:32" customHeight="1">
       <c r="AE212" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF212" s="0" t="n">
         <v>5700</v>
@@ -5190,7 +5147,7 @@
     </row>
     <row r="213" spans="31:32" customHeight="1">
       <c r="AE213" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF213" s="0" t="n">
         <v>20000</v>
@@ -5198,7 +5155,7 @@
     </row>
     <row r="214" spans="31:32" customHeight="1">
       <c r="AE214" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF214" s="0" t="n">
         <v>5700</v>
@@ -5206,7 +5163,7 @@
     </row>
     <row r="215" spans="31:32" customHeight="1">
       <c r="AE215" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF215" s="0" t="n">
         <v>20000</v>
@@ -5214,7 +5171,7 @@
     </row>
     <row r="216" spans="31:32" customHeight="1">
       <c r="AE216" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF216" s="0" t="n">
         <v>5700</v>
@@ -5222,7 +5179,7 @@
     </row>
     <row r="217" spans="31:32" customHeight="1">
       <c r="AE217" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF217" s="0" t="n">
         <v>10600</v>
@@ -5230,7 +5187,7 @@
     </row>
     <row r="218" spans="31:32" customHeight="1">
       <c r="AE218" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF218" s="0" t="n">
         <v>20000</v>
@@ -5238,7 +5195,7 @@
     </row>
     <row r="219" spans="31:32" customHeight="1">
       <c r="AE219" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF219" s="0" t="n">
         <v>5700</v>
@@ -5246,7 +5203,7 @@
     </row>
     <row r="220" spans="31:32" customHeight="1">
       <c r="AE220" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF220" s="0" t="n">
         <v>5700</v>
@@ -5254,7 +5211,7 @@
     </row>
     <row r="221" spans="31:32" customHeight="1">
       <c r="AE221" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF221" s="0" t="n">
         <v>10600</v>
@@ -5262,7 +5219,7 @@
     </row>
     <row r="222" spans="31:32" customHeight="1">
       <c r="AE222" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF222" s="0" t="n">
         <v>5700</v>
@@ -5270,7 +5227,7 @@
     </row>
     <row r="223" spans="31:32" customHeight="1">
       <c r="AE223" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF223" s="0" t="n">
         <v>10600</v>
@@ -5278,7 +5235,7 @@
     </row>
     <row r="224" spans="31:32" customHeight="1">
       <c r="AE224" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF224" s="0" t="n">
         <v>10600</v>
@@ -5286,7 +5243,7 @@
     </row>
     <row r="225" spans="31:32" customHeight="1">
       <c r="AE225" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF225" s="0" t="n">
         <v>5700</v>
@@ -5294,7 +5251,7 @@
     </row>
     <row r="226" spans="31:32" customHeight="1">
       <c r="AE226" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF226" s="0" t="n">
         <v>5700</v>
@@ -5302,7 +5259,7 @@
     </row>
     <row r="227" spans="31:32" customHeight="1">
       <c r="AE227" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF227" s="0" t="n">
         <v>20000</v>
@@ -5310,7 +5267,7 @@
     </row>
     <row r="228" spans="31:32" customHeight="1">
       <c r="AE228" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF228" s="0" t="n">
         <v>10600</v>
@@ -5318,7 +5275,7 @@
     </row>
     <row r="229" spans="31:32" customHeight="1">
       <c r="AE229" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF229" s="0" t="n">
         <v>20000</v>
@@ -5326,7 +5283,7 @@
     </row>
     <row r="230" spans="31:32" customHeight="1">
       <c r="AE230" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF230" s="0" t="n">
         <v>20000</v>
@@ -5334,7 +5291,7 @@
     </row>
     <row r="231" spans="31:32" customHeight="1">
       <c r="AE231" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF231" s="0" t="n">
         <v>5700</v>
@@ -5342,7 +5299,7 @@
     </row>
     <row r="232" spans="31:32" customHeight="1">
       <c r="AE232" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF232" s="0" t="n">
         <v>5700</v>
@@ -5350,7 +5307,7 @@
     </row>
     <row r="233" spans="31:32" customHeight="1">
       <c r="AE233" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF233" s="0" t="n">
         <v>5700</v>
@@ -5358,7 +5315,7 @@
     </row>
     <row r="234" spans="31:32" customHeight="1">
       <c r="AE234" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF234" s="0" t="n">
         <v>10600</v>
@@ -5366,7 +5323,7 @@
     </row>
     <row r="235" spans="31:32" customHeight="1">
       <c r="AE235" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF235" s="0" t="n">
         <v>5700</v>
@@ -5374,7 +5331,7 @@
     </row>
     <row r="236" spans="31:32" customHeight="1">
       <c r="AE236" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF236" s="0" t="n">
         <v>10600</v>
@@ -5382,7 +5339,7 @@
     </row>
     <row r="237" spans="31:32" customHeight="1">
       <c r="AE237" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF237" s="0" t="n">
         <v>10600</v>
@@ -5390,7 +5347,7 @@
     </row>
     <row r="238" spans="31:32" customHeight="1">
       <c r="AE238" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF238" s="0" t="n">
         <v>20000</v>
@@ -5398,7 +5355,7 @@
     </row>
     <row r="239" spans="31:32" customHeight="1">
       <c r="AE239" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF239" s="0" t="n">
         <v>20000</v>
@@ -5406,7 +5363,7 @@
     </row>
     <row r="240" spans="31:32" customHeight="1">
       <c r="AE240" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF240" s="0" t="n">
         <v>5700</v>
@@ -5414,7 +5371,7 @@
     </row>
     <row r="241" spans="31:32" customHeight="1">
       <c r="AE241" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF241" s="0" t="n">
         <v>5700</v>
@@ -5422,7 +5379,7 @@
     </row>
     <row r="242" spans="31:32" customHeight="1">
       <c r="AE242" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF242" s="0" t="n">
         <v>10600</v>
@@ -5430,7 +5387,7 @@
     </row>
     <row r="243" spans="31:32" customHeight="1">
       <c r="AE243" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF243" s="0" t="n">
         <v>20000</v>
@@ -5438,7 +5395,7 @@
     </row>
     <row r="244" spans="31:32" customHeight="1">
       <c r="AE244" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF244" s="0" t="n">
         <v>5700</v>
@@ -5446,7 +5403,7 @@
     </row>
     <row r="245" spans="31:32" customHeight="1">
       <c r="AE245" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF245" s="0" t="n">
         <v>5700</v>
@@ -5454,7 +5411,7 @@
     </row>
     <row r="246" spans="31:32" customHeight="1">
       <c r="AE246" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF246" s="0" t="n">
         <v>20000</v>
@@ -5462,7 +5419,7 @@
     </row>
     <row r="247" spans="31:32" customHeight="1">
       <c r="AE247" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF247" s="0" t="n">
         <v>10600</v>
@@ -5470,7 +5427,7 @@
     </row>
     <row r="248" spans="31:32" customHeight="1">
       <c r="AE248" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF248" s="0" t="n">
         <v>5700</v>
@@ -5478,7 +5435,7 @@
     </row>
     <row r="249" spans="31:32" customHeight="1">
       <c r="AE249" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF249" s="0" t="n">
         <v>5700</v>
@@ -5486,7 +5443,7 @@
     </row>
     <row r="250" spans="31:32" customHeight="1">
       <c r="AE250" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF250" s="0" t="n">
         <v>5700</v>
@@ -5494,7 +5451,7 @@
     </row>
     <row r="251" spans="31:32" customHeight="1">
       <c r="AE251" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF251" s="0" t="n">
         <v>5700</v>
@@ -5502,7 +5459,7 @@
     </row>
     <row r="252" spans="31:32" customHeight="1">
       <c r="AE252" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF252" s="0" t="n">
         <v>5700</v>
@@ -5510,7 +5467,7 @@
     </row>
     <row r="253" spans="31:32" customHeight="1">
       <c r="AE253" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF253" s="0" t="n">
         <v>10600</v>
@@ -5518,7 +5475,7 @@
     </row>
     <row r="254" spans="31:32" customHeight="1">
       <c r="AE254" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF254" s="0" t="n">
         <v>5700</v>
@@ -5526,7 +5483,7 @@
     </row>
     <row r="255" spans="31:32" customHeight="1">
       <c r="AE255" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF255" s="0" t="n">
         <v>5700</v>
@@ -5534,7 +5491,7 @@
     </row>
     <row r="256" spans="31:32" customHeight="1">
       <c r="AE256" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF256" s="0" t="n">
         <v>5700</v>
@@ -5542,7 +5499,7 @@
     </row>
     <row r="257" spans="31:32" customHeight="1">
       <c r="AE257" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF257" s="0" t="n">
         <v>5700</v>
@@ -5550,7 +5507,7 @@
     </row>
     <row r="258" spans="31:32" customHeight="1">
       <c r="AE258" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF258" s="0" t="n">
         <v>5700</v>
@@ -5558,7 +5515,7 @@
     </row>
     <row r="259" spans="31:32" customHeight="1">
       <c r="AE259" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF259" s="0" t="n">
         <v>20000</v>
@@ -5566,7 +5523,7 @@
     </row>
     <row r="260" spans="31:32" customHeight="1">
       <c r="AE260" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF260" s="0" t="n">
         <v>5700</v>
@@ -5574,7 +5531,7 @@
     </row>
     <row r="261" spans="31:32" customHeight="1">
       <c r="AE261" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF261" s="0" t="n">
         <v>5700</v>
@@ -5582,7 +5539,7 @@
     </row>
     <row r="262" spans="31:32" customHeight="1">
       <c r="AE262" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF262" s="0" t="n">
         <v>20000</v>
@@ -5590,7 +5547,7 @@
     </row>
     <row r="263" spans="31:32" customHeight="1">
       <c r="AE263" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF263" s="0" t="n">
         <v>20000</v>
@@ -5598,7 +5555,7 @@
     </row>
     <row r="264" spans="31:32" customHeight="1">
       <c r="AE264" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF264" s="0" t="n">
         <v>10600</v>
@@ -5606,7 +5563,7 @@
     </row>
     <row r="265" spans="31:32" customHeight="1">
       <c r="AE265" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF265" s="0" t="n">
         <v>20000</v>
@@ -5614,7 +5571,7 @@
     </row>
     <row r="266" spans="31:32" customHeight="1">
       <c r="AE266" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF266" s="0" t="n">
         <v>5700</v>
@@ -5622,7 +5579,7 @@
     </row>
     <row r="267" spans="31:32" customHeight="1">
       <c r="AE267" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF267" s="0" t="n">
         <v>20000</v>
@@ -5630,7 +5587,7 @@
     </row>
     <row r="268" spans="31:32" customHeight="1">
       <c r="AE268" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF268" s="0" t="n">
         <v>10600</v>
@@ -5638,7 +5595,7 @@
     </row>
     <row r="269" spans="31:32" customHeight="1">
       <c r="AE269" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF269" s="0" t="n">
         <v>5700</v>
@@ -5646,7 +5603,7 @@
     </row>
     <row r="270" spans="31:32" customHeight="1">
       <c r="AE270" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF270" s="0" t="n">
         <v>10600</v>
@@ -5654,7 +5611,7 @@
     </row>
     <row r="271" spans="31:32" customHeight="1">
       <c r="AE271" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF271" s="0" t="n">
         <v>5700</v>
@@ -5662,7 +5619,7 @@
     </row>
     <row r="272" spans="31:32" customHeight="1">
       <c r="AE272" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF272" s="0" t="n">
         <v>20000</v>
@@ -5670,7 +5627,7 @@
     </row>
     <row r="273" spans="31:32" customHeight="1">
       <c r="AE273" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF273" s="0" t="n">
         <v>5700</v>
@@ -5678,7 +5635,7 @@
     </row>
     <row r="274" spans="31:32" customHeight="1">
       <c r="AE274" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF274" s="0" t="n">
         <v>10600</v>
@@ -5686,7 +5643,7 @@
     </row>
     <row r="275" spans="31:32" customHeight="1">
       <c r="AE275" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF275" s="0" t="n">
         <v>10600</v>
@@ -5694,7 +5651,7 @@
     </row>
     <row r="276" spans="31:32" customHeight="1">
       <c r="AE276" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF276" s="0" t="n">
         <v>10600</v>
@@ -5702,7 +5659,7 @@
     </row>
     <row r="277" spans="31:32" customHeight="1">
       <c r="AE277" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF277" s="0" t="n">
         <v>5700</v>
@@ -5710,7 +5667,7 @@
     </row>
     <row r="278" spans="31:32" customHeight="1">
       <c r="AE278" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF278" s="0" t="n">
         <v>5700</v>
@@ -5718,7 +5675,7 @@
     </row>
     <row r="279" spans="31:32" customHeight="1">
       <c r="AE279" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF279" s="0" t="n">
         <v>5700</v>
@@ -5726,7 +5683,7 @@
     </row>
     <row r="280" spans="31:32" customHeight="1">
       <c r="AE280" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF280" s="0" t="n">
         <v>5700</v>
@@ -5734,7 +5691,7 @@
     </row>
     <row r="281" spans="31:32" customHeight="1">
       <c r="AE281" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF281" s="0" t="n">
         <v>10600</v>
@@ -5742,7 +5699,7 @@
     </row>
     <row r="282" spans="31:32" customHeight="1">
       <c r="AE282" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF282" s="0" t="n">
         <v>5700</v>
@@ -5750,7 +5707,7 @@
     </row>
     <row r="283" spans="31:32" customHeight="1">
       <c r="AE283" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF283" s="0" t="n">
         <v>5700</v>
@@ -5758,7 +5715,7 @@
     </row>
     <row r="284" spans="31:32" customHeight="1">
       <c r="AE284" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF284" s="0" t="n">
         <v>5700</v>
@@ -5766,7 +5723,7 @@
     </row>
     <row r="285" spans="31:32" customHeight="1">
       <c r="AE285" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF285" s="0" t="n">
         <v>10600</v>
@@ -5774,7 +5731,7 @@
     </row>
     <row r="286" spans="31:32" customHeight="1">
       <c r="AE286" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF286" s="0" t="n">
         <v>20000</v>
@@ -5782,7 +5739,7 @@
     </row>
     <row r="287" spans="31:32" customHeight="1">
       <c r="AE287" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF287" s="0" t="n">
         <v>5700</v>
@@ -5790,7 +5747,7 @@
     </row>
     <row r="288" spans="31:32" customHeight="1">
       <c r="AE288" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF288" s="0" t="n">
         <v>20000</v>
@@ -5798,7 +5755,7 @@
     </row>
     <row r="289" spans="31:32" customHeight="1">
       <c r="AE289" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF289" s="0" t="n">
         <v>10600</v>
@@ -5806,7 +5763,7 @@
     </row>
     <row r="290" spans="31:32" customHeight="1">
       <c r="AE290" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF290" s="0" t="n">
         <v>20000</v>
@@ -5814,7 +5771,7 @@
     </row>
     <row r="291" spans="31:32" customHeight="1">
       <c r="AE291" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF291" s="0" t="n">
         <v>5700</v>
@@ -5822,7 +5779,7 @@
     </row>
     <row r="292" spans="31:32" customHeight="1">
       <c r="AE292" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF292" s="0" t="n">
         <v>5700</v>
@@ -5830,7 +5787,7 @@
     </row>
     <row r="293" spans="31:32" customHeight="1">
       <c r="AE293" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF293" s="0" t="n">
         <v>5700</v>
@@ -5838,7 +5795,7 @@
     </row>
     <row r="294" spans="31:32" customHeight="1">
       <c r="AE294" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF294" s="0" t="n">
         <v>10600</v>
@@ -5846,7 +5803,7 @@
     </row>
     <row r="295" spans="31:32" customHeight="1">
       <c r="AE295" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF295" s="0" t="n">
         <v>20000</v>
@@ -5854,7 +5811,7 @@
     </row>
     <row r="296" spans="31:32" customHeight="1">
       <c r="AE296" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF296" s="0" t="n">
         <v>5700</v>
@@ -5862,7 +5819,7 @@
     </row>
     <row r="297" spans="31:32" customHeight="1">
       <c r="AE297" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF297" s="0" t="n">
         <v>5700</v>
@@ -5870,7 +5827,7 @@
     </row>
     <row r="298" spans="31:32" customHeight="1">
       <c r="AE298" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF298" s="0" t="n">
         <v>5700</v>
@@ -5878,7 +5835,7 @@
     </row>
     <row r="299" spans="31:32" customHeight="1">
       <c r="AE299" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF299" s="0" t="n">
         <v>10600</v>
@@ -5886,7 +5843,7 @@
     </row>
     <row r="300" spans="31:32" customHeight="1">
       <c r="AE300" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF300" s="0" t="n">
         <v>5700</v>
@@ -5894,7 +5851,7 @@
     </row>
     <row r="301" spans="31:32" customHeight="1">
       <c r="AE301" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF301" s="0" t="n">
         <v>20000</v>
@@ -5902,7 +5859,7 @@
     </row>
     <row r="302" spans="31:32" customHeight="1">
       <c r="AE302" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF302" s="0" t="n">
         <v>20000</v>
@@ -5910,7 +5867,7 @@
     </row>
     <row r="303" spans="31:32" customHeight="1">
       <c r="AE303" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF303" s="0" t="n">
         <v>5700</v>
@@ -5918,7 +5875,7 @@
     </row>
     <row r="304" spans="31:32" customHeight="1">
       <c r="AE304" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF304" s="0" t="n">
         <v>5700</v>
@@ -5926,7 +5883,7 @@
     </row>
     <row r="305" spans="31:32" customHeight="1">
       <c r="AE305" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF305" s="0" t="n">
         <v>10600</v>
@@ -6037,7 +5994,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>900</v>
@@ -6083,7 +6040,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>900</v>
@@ -6133,7 +6090,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>900</v>
@@ -6177,7 +6134,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>900</v>
@@ -6200,13 +6157,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="H5" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>362</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -6231,7 +6188,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>900</v>
@@ -6242,7 +6199,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="26" t="n">
         <v>120</v>
@@ -6254,13 +6211,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>364</v>
-      </c>
       <c r="H6" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -6285,7 +6242,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>900</v>
@@ -6296,7 +6253,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>120</v>
@@ -6333,7 +6290,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>900</v>
@@ -6344,7 +6301,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C8" s="30" t="n">
         <v>45</v>
@@ -6381,7 +6338,7 @@
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>900</v>
@@ -6392,7 +6349,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="30" t="n">
         <v>100</v>
@@ -6429,7 +6386,7 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>900</v>
@@ -6440,7 +6397,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>60</v>
@@ -6477,7 +6434,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>900</v>
@@ -6488,7 +6445,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>80</v>
@@ -6525,7 +6482,7 @@
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>900</v>
@@ -6536,7 +6493,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>60</v>
@@ -6573,7 +6530,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>900</v>
@@ -6584,7 +6541,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="30" t="n">
         <v>90</v>
@@ -6621,7 +6578,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>900</v>
@@ -6632,7 +6589,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C14" s="30" t="n">
         <v>65</v>
@@ -6669,7 +6626,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>900</v>
@@ -6680,7 +6637,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>60</v>
@@ -6717,7 +6674,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>900</v>
@@ -6728,7 +6685,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>100</v>
@@ -6765,7 +6722,7 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>900</v>
@@ -6776,7 +6733,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>60</v>
@@ -6813,7 +6770,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>900</v>
@@ -6824,7 +6781,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C18" s="26" t="n">
         <v>30</v>
@@ -6861,7 +6818,7 @@
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
       <c r="AE18" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>900</v>
@@ -6872,7 +6829,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C19" s="26" t="n">
         <v>30</v>
@@ -6909,7 +6866,7 @@
       <c r="AC19" s="28"/>
       <c r="AD19" s="28"/>
       <c r="AE19" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>900</v>
@@ -6920,7 +6877,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C20" s="26" t="n">
         <v>25</v>
@@ -6957,7 +6914,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>900</v>
@@ -6968,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C21" s="26" t="n">
         <v>35</v>
@@ -7005,7 +6962,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
       <c r="AE21" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>900</v>
@@ -7016,7 +6973,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C22" s="26" t="n">
         <v>30</v>
@@ -7053,7 +7010,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>900</v>
@@ -7064,7 +7021,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C23" s="26" t="n">
         <v>30</v>
@@ -7101,7 +7058,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>900</v>
@@ -7112,7 +7069,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>30</v>
@@ -7149,7 +7106,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>900</v>
@@ -7157,7 +7114,7 @@
     </row>
     <row r="25" spans="31:32" customHeight="1">
       <c r="AE25" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>900</v>
@@ -7165,7 +7122,7 @@
     </row>
     <row r="26" spans="31:32" customHeight="1">
       <c r="AE26" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>900</v>
@@ -7173,7 +7130,7 @@
     </row>
     <row r="27" spans="31:32" customHeight="1">
       <c r="AE27" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>900</v>
@@ -7181,7 +7138,7 @@
     </row>
     <row r="28" spans="31:32" customHeight="1">
       <c r="AE28" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>1350</v>
@@ -7189,7 +7146,7 @@
     </row>
     <row r="29" spans="31:32" customHeight="1">
       <c r="AE29" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>900</v>
@@ -7197,7 +7154,7 @@
     </row>
     <row r="30" spans="31:32" customHeight="1">
       <c r="AE30" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>900</v>
@@ -7205,7 +7162,7 @@
     </row>
     <row r="31" spans="31:32" customHeight="1">
       <c r="AE31" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>900</v>
@@ -7213,7 +7170,7 @@
     </row>
     <row r="32" spans="31:32" customHeight="1">
       <c r="AE32" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>900</v>
@@ -7221,7 +7178,7 @@
     </row>
     <row r="33" spans="31:32" customHeight="1">
       <c r="AE33" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>900</v>
@@ -7229,7 +7186,7 @@
     </row>
     <row r="34" spans="31:32" customHeight="1">
       <c r="AE34" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>900</v>
@@ -7237,7 +7194,7 @@
     </row>
     <row r="35" spans="31:32" customHeight="1">
       <c r="AE35" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>900</v>
@@ -7245,7 +7202,7 @@
     </row>
     <row r="36" spans="31:32" customHeight="1">
       <c r="AE36" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>900</v>
@@ -7253,7 +7210,7 @@
     </row>
     <row r="37" spans="31:32" customHeight="1">
       <c r="AE37" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>900</v>
@@ -7261,7 +7218,7 @@
     </row>
     <row r="38" spans="31:32" customHeight="1">
       <c r="AE38" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>900</v>
@@ -7269,7 +7226,7 @@
     </row>
     <row r="39" spans="31:32" customHeight="1">
       <c r="AE39" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>900</v>
@@ -7277,7 +7234,7 @@
     </row>
     <row r="40" spans="31:32" customHeight="1">
       <c r="AE40" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>1350</v>
@@ -7285,7 +7242,7 @@
     </row>
     <row r="41" spans="31:32" customHeight="1">
       <c r="AE41" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>900</v>
@@ -7293,7 +7250,7 @@
     </row>
     <row r="42" spans="31:32" customHeight="1">
       <c r="AE42" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>900</v>
@@ -7301,7 +7258,7 @@
     </row>
     <row r="43" spans="31:32" customHeight="1">
       <c r="AE43" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>900</v>
@@ -7309,7 +7266,7 @@
     </row>
     <row r="44" spans="31:32" customHeight="1">
       <c r="AE44" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>900</v>
@@ -7317,7 +7274,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>900</v>
@@ -7325,7 +7282,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>1350</v>
@@ -7333,7 +7290,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>900</v>
@@ -7341,7 +7298,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>900</v>
@@ -7349,7 +7306,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>900</v>
@@ -7357,7 +7314,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>900</v>
@@ -7365,7 +7322,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>2900</v>
@@ -7373,7 +7330,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>900</v>
@@ -7381,7 +7338,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>900</v>
@@ -7389,7 +7346,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>900</v>
@@ -7397,7 +7354,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>900</v>
@@ -7405,7 +7362,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>900</v>
@@ -7413,7 +7370,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>900</v>
@@ -7421,7 +7378,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>1350</v>
@@ -7429,7 +7386,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>1350</v>
@@ -7437,7 +7394,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>900</v>
@@ -7445,7 +7402,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>900</v>
@@ -7453,7 +7410,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>900</v>
@@ -7461,7 +7418,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>900</v>
@@ -7469,7 +7426,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>900</v>
@@ -7477,7 +7434,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>900</v>
@@ -7485,7 +7442,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>900</v>
@@ -7493,7 +7450,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>900</v>
@@ -7501,7 +7458,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>900</v>
@@ -7509,7 +7466,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>900</v>
@@ -7517,7 +7474,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>900</v>
@@ -7525,7 +7482,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>900</v>
@@ -7533,7 +7490,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>900</v>
@@ -7541,7 +7498,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>900</v>

--- a/src/lib/gen-server/port-battle.xlsx
+++ b/src/lib/gen-server/port-battle.xlsx
@@ -71,24 +71,24 @@
     <t>St. Pavel</t>
   </si>
   <si>
+    <t>Admiraal de Ruyter</t>
+  </si>
+  <si>
+    <t>Implacable</t>
+  </si>
+  <si>
+    <t>Redoutable (i)</t>
+  </si>
+  <si>
+    <t>Bellona</t>
+  </si>
+  <si>
     <t>3rd Rate</t>
   </si>
   <si>
-    <t>Admiraal de Ruyter</t>
-  </si>
-  <si>
-    <t>Bellona</t>
-  </si>
-  <si>
     <t>Constitution</t>
   </si>
   <si>
-    <t>Implacable</t>
-  </si>
-  <si>
-    <t>Redoutable (i)</t>
-  </si>
-  <si>
     <t>USS United States</t>
   </si>
   <si>
@@ -98,84 +98,84 @@
     <t>Agamemnon</t>
   </si>
   <si>
+    <t>Rättvisan (i)</t>
+  </si>
+  <si>
+    <t>Leopard (i)</t>
+  </si>
+  <si>
     <t>Indefatigable</t>
   </si>
   <si>
     <t>Ingermanland</t>
   </si>
   <si>
-    <t>Leopard (i)</t>
-  </si>
-  <si>
-    <t>Rättvisan (i)</t>
-  </si>
-  <si>
     <t>Wapen von Hamburg</t>
   </si>
   <si>
+    <t>Endymion</t>
+  </si>
+  <si>
+    <t>Trincomalee</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>L’Hermione (i)</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>La Belle-Poule</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Indiaman</t>
+  </si>
+  <si>
+    <t>La Renommée</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Hercules (i)</t>
+  </si>
+  <si>
     <t>Cerberus</t>
   </si>
   <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Endymion</t>
-  </si>
-  <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>Hercules (i)</t>
-  </si>
-  <si>
-    <t>Indiaman</t>
-  </si>
-  <si>
-    <t>L’Hermione (i)</t>
-  </si>
-  <si>
-    <t>La Belle-Poule</t>
-  </si>
-  <si>
-    <t>La Renommée</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
     <t>Pandora (i)</t>
   </si>
   <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>Surprise</t>
-  </si>
-  <si>
-    <t>Trincomalee</t>
-  </si>
-  <si>
     <t>Le Requin (i)</t>
   </si>
   <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
     <t>Mortar Brig</t>
   </si>
   <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
     <t>Aguadilla</t>
   </si>
   <si>
@@ -1106,22 +1106,25 @@
     <t>X</t>
   </si>
   <si>
+    <t>Prince de Neufchâtel</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Navy Brig</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
     <t>Brig</t>
   </si>
   <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Navy Brig</t>
-  </si>
-  <si>
-    <t>Prince de Neufchâtel</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
-    <t>Snow</t>
+    <t>Pickle</t>
   </si>
   <si>
     <t>Cutter</t>
@@ -1130,19 +1133,16 @@
     <t>GunBoat</t>
   </si>
   <si>
+    <t>Privateer</t>
+  </si>
+  <si>
+    <t>Yacht (i)</t>
+  </si>
+  <si>
+    <t>Yacht Silver (i)</t>
+  </si>
+  <si>
     <t>Lynx</t>
-  </si>
-  <si>
-    <t>Pickle</t>
-  </si>
-  <si>
-    <t>Privateer</t>
-  </si>
-  <si>
-    <t>Yacht (i)</t>
-  </si>
-  <si>
-    <t>Yacht Silver (i)</t>
   </si>
   <si>
     <t>Ahumada</t>
@@ -2145,7 +2145,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="26" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="D12" s="26">
         <f>COUNTA(F12:AD12)</f>
@@ -2241,7 +2241,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="26" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="D14" s="26">
         <f>COUNTA(F14:AD14)</f>
@@ -2289,7 +2289,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="26" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D15" s="26">
         <f>COUNTA(F15:AD15)</f>
@@ -2337,7 +2337,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="26" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="D16" s="26">
         <f>COUNTA(F16:AD16)</f>
@@ -2385,7 +2385,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="26" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="D17" s="26">
         <f>COUNTA(F17:AD17)</f>
@@ -2577,7 +2577,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="30" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
@@ -2625,7 +2625,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="30" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
@@ -2673,7 +2673,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="30" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D23" s="30">
         <f>COUNTA(F23:AD23)</f>
@@ -2721,7 +2721,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="30" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="D24" s="30">
         <f>COUNTA(F24:AD24)</f>
@@ -2817,7 +2817,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -2865,7 +2865,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="26" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D27" s="26">
         <f>COUNTA(F27:AD27)</f>
@@ -2913,7 +2913,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="26" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D28" s="26">
         <f>COUNTA(F28:AD28)</f>
@@ -2961,7 +2961,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="26" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D29" s="26">
         <f>COUNTA(F29:AD29)</f>
@@ -3009,7 +3009,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="26" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="D30" s="26">
         <f>COUNTA(F30:AD30)</f>
@@ -3057,7 +3057,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="26" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="D31" s="26">
         <f>COUNTA(F31:AD31)</f>
@@ -3105,7 +3105,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="26" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D32" s="26">
         <f>COUNTA(F32:AD32)</f>
@@ -3153,7 +3153,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="26" t="n">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="D33" s="26">
         <f>COUNTA(F33:AD33)</f>
@@ -3201,7 +3201,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="26" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D34" s="26">
         <f>COUNTA(F34:AD34)</f>
@@ -3249,7 +3249,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="26" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D35" s="26">
         <f>COUNTA(F35:AD35)</f>
@@ -3297,7 +3297,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -3345,7 +3345,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="26" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D37" s="26">
         <f>COUNTA(F37:AD37)</f>
@@ -3393,7 +3393,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D38" s="26">
         <f>COUNTA(F38:AD38)</f>
@@ -3441,7 +3441,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="26" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D39" s="26">
         <f>COUNTA(F39:AD39)</f>
@@ -3489,7 +3489,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="26" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="D40" s="26">
         <f>COUNTA(F40:AD40)</f>
@@ -3537,7 +3537,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="26" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D41" s="26">
         <f>COUNTA(F41:AD41)</f>
@@ -3585,7 +3585,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="26" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="D42" s="26">
         <f>COUNTA(F42:AD42)</f>
@@ -3681,7 +3681,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="30" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D44" s="30">
         <f>COUNTA(F44:AD44)</f>
@@ -3777,7 +3777,7 @@
         <v>53</v>
       </c>
       <c r="C46" s="30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D46" s="30">
         <f>COUNTA(F46:AD46)</f>
@@ -6145,10 +6145,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C5" s="26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D5" s="26">
         <f>COUNTA(F5:AD5)</f>
@@ -6199,7 +6199,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" s="26" t="n">
         <v>120</v>
@@ -6256,7 +6256,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="26" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D7" s="26">
         <f>COUNTA(F7:AD7)</f>
@@ -6301,10 +6301,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>364</v>
+        <v>50</v>
       </c>
       <c r="C8" s="30" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D8" s="30">
         <f>COUNTA(F8:AD8)</f>
@@ -6349,7 +6349,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="30" t="n">
         <v>100</v>
@@ -6397,10 +6397,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>365</v>
+        <v>52</v>
       </c>
       <c r="C10" s="30" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D10" s="30">
         <f>COUNTA(F10:AD10)</f>
@@ -6445,7 +6445,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>80</v>
@@ -6493,10 +6493,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C12" s="30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D12" s="30">
         <f>COUNTA(F12:AD12)</f>
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>52</v>
+        <v>365</v>
       </c>
       <c r="C13" s="30" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D13" s="30">
         <f>COUNTA(F13:AD13)</f>
@@ -6589,10 +6589,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C14" s="30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D14" s="30">
         <f>COUNTA(F14:AD14)</f>
@@ -6637,7 +6637,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>60</v>
@@ -6685,10 +6685,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>53</v>
+        <v>368</v>
       </c>
       <c r="C16" s="30" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D16" s="30">
         <f>COUNTA(F16:AD16)</f>
@@ -6736,7 +6736,7 @@
         <v>369</v>
       </c>
       <c r="C17" s="30" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D17" s="30">
         <f>COUNTA(F17:AD17)</f>
@@ -6784,7 +6784,7 @@
         <v>370</v>
       </c>
       <c r="C18" s="26" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D18" s="26">
         <f>COUNTA(F18:AD18)</f>
@@ -6880,7 +6880,7 @@
         <v>372</v>
       </c>
       <c r="C20" s="26" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D20" s="26">
         <f>COUNTA(F20:AD20)</f>
@@ -6928,7 +6928,7 @@
         <v>373</v>
       </c>
       <c r="C21" s="26" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D21" s="26">
         <f>COUNTA(F21:AD21)</f>
@@ -7072,7 +7072,7 @@
         <v>376</v>
       </c>
       <c r="C24" s="26" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D24" s="26">
         <f>COUNTA(F24:AD24)</f>
